--- a/excel/finished/能介/柜区风机煤压机时间统计表.xlsx
+++ b/excel/finished/能介/柜区风机煤压机时间统计表.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\韶钢\程序设计\报表模板\能介\能介\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28245" windowHeight="13500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7300"/>
   </bookViews>
   <sheets>
     <sheet name="Area_Runtime_Main" sheetId="1" r:id="rId1"/>
@@ -12,12 +17,12 @@
     <sheet name="_Area2_month_day" sheetId="4" r:id="rId3"/>
     <sheet name="_Area3_month_day" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="42">
   <si>
     <t>接口说明：http://10.66.3.220:8080/swagger-ui.html#/ 
 传入参数：该表的所有接口需要传入tag名、日期即可（如2018/9/12）</t>
@@ -149,14 +154,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,151 +171,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -343,192 +205,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -648,255 +330,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -915,6 +355,21 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="31" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -924,11 +379,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -936,98 +394,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1314,1010 +707,1007 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView tabSelected="1" topLeftCell="I10" workbookViewId="0">
+      <selection activeCell="V16" sqref="V16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.375" customWidth="1"/>
-    <col min="2" max="6" width="11.125" customWidth="1"/>
-    <col min="7" max="7" width="14.625" customWidth="1"/>
-    <col min="8" max="10" width="11.125" customWidth="1"/>
-    <col min="11" max="13" width="9.125" customWidth="1"/>
+    <col min="1" max="1" width="19.36328125" customWidth="1"/>
+    <col min="2" max="6" width="11.08984375" customWidth="1"/>
+    <col min="7" max="7" width="14.6328125" customWidth="1"/>
+    <col min="8" max="10" width="11.08984375" customWidth="1"/>
+    <col min="11" max="13" width="9.08984375" customWidth="1"/>
     <col min="14" max="14" width="13" customWidth="1"/>
-    <col min="15" max="16" width="11.125" customWidth="1"/>
-    <col min="18" max="18" width="69.625" customWidth="1"/>
+    <col min="15" max="16" width="11.08984375" customWidth="1"/>
+    <col min="18" max="18" width="69.6328125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="45" customHeight="1" spans="7:18">
-      <c r="G1" s="6">
+    <row r="1" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G1" s="11">
         <v>43355</v>
       </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="R1" s="24" t="s">
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="R1" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="27.75" customHeight="1" spans="1:18">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="20" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="21"/>
-      <c r="P2" s="22"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="16"/>
       <c r="R2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="27.75" customHeight="1" spans="1:18">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9" t="s">
+    <row r="3" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="M3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="N3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="O3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="P3" s="6" t="s">
         <v>6</v>
       </c>
       <c r="R3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" ht="27.75" customHeight="1" spans="1:18">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:18" s="23" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="10" t="str">
+      <c r="B4" s="22" t="str">
         <f>IF(_Area1_day_shift!A2="","",_Area1_day_shift!A2)</f>
         <v/>
       </c>
-      <c r="C4" s="10" t="str">
+      <c r="C4" s="22" t="str">
         <f>IF(_Area1_day_shift!B2="","",_Area1_day_shift!B2)</f>
         <v/>
       </c>
-      <c r="D4" s="10" t="str">
+      <c r="D4" s="22" t="str">
         <f>IF(_Area1_day_shift!C2="","",_Area1_day_shift!C2)</f>
         <v/>
       </c>
-      <c r="E4" s="10" t="str">
+      <c r="E4" s="22" t="str">
         <f>IF(_Area1_day_shift!D2="","",_Area1_day_shift!D2)</f>
         <v/>
       </c>
-      <c r="F4" s="10" t="str">
+      <c r="F4" s="22" t="str">
         <f>IF(_Area1_day_shift!E2="","",_Area1_day_shift!E2)</f>
         <v/>
       </c>
-      <c r="G4" s="10" t="str">
+      <c r="G4" s="22" t="str">
         <f>IF(_Area1_day_shift!F2="","",_Area1_day_shift!F2)</f>
         <v/>
       </c>
-      <c r="H4" s="10" t="str">
+      <c r="H4" s="22" t="str">
         <f>IF(_Area1_day_shift!G2="","",_Area1_day_shift!G2)</f>
         <v/>
       </c>
-      <c r="I4" s="10" t="str">
+      <c r="I4" s="22" t="str">
         <f>IF(_Area1_day_shift!H2="","",_Area1_day_shift!H2)</f>
         <v/>
       </c>
-      <c r="J4" s="10" t="str">
+      <c r="J4" s="22" t="str">
         <f>IF(_Area1_day_shift!I2="","",_Area1_day_shift!I2)</f>
         <v/>
       </c>
-      <c r="K4" s="10" t="str">
+      <c r="K4" s="22" t="str">
         <f>IF(_Area1_day_shift!J2="","",_Area1_day_shift!J2)</f>
         <v/>
       </c>
-      <c r="L4" s="10" t="str">
+      <c r="L4" s="22" t="str">
         <f>IF(_Area1_day_shift!K2="","",_Area1_day_shift!K2)</f>
         <v/>
       </c>
-      <c r="M4" s="10" t="str">
+      <c r="M4" s="22" t="str">
         <f>IF(_Area1_day_shift!L2="","",_Area1_day_shift!L2)</f>
         <v/>
       </c>
-      <c r="N4" s="10" t="str">
+      <c r="N4" s="22" t="str">
         <f>IF(_Area1_day_shift!M2="","",_Area1_day_shift!M2)</f>
         <v/>
       </c>
-      <c r="O4" s="10" t="str">
+      <c r="O4" s="22" t="str">
         <f>IF(_Area1_day_shift!N2="","",_Area1_day_shift!N2)</f>
         <v/>
       </c>
-      <c r="P4" s="10" t="str">
+      <c r="P4" s="22" t="str">
         <f>IF(_Area1_day_shift!O2="","",_Area1_day_shift!O2)</f>
         <v/>
       </c>
-      <c r="R4" t="s">
+      <c r="R4" s="23" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" ht="27.75" customHeight="1" spans="1:16">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:18" s="23" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="10" t="e">
+      <c r="B5" s="22" t="e">
         <f>8-IFERROR(B4,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C5" s="10" t="e">
+      <c r="C5" s="22" t="e">
         <f t="shared" ref="C5:M5" si="0">8-IFERROR(C4,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D5" s="10" t="e">
+      <c r="D5" s="22" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E5" s="10" t="e">
+      <c r="E5" s="22" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F5" s="10" t="e">
+      <c r="F5" s="22" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G5" s="10" t="e">
+      <c r="G5" s="22" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H5" s="10" t="e">
+      <c r="H5" s="22" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I5" s="10" t="e">
+      <c r="I5" s="22" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J5" s="10" t="e">
+      <c r="J5" s="22" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K5" s="10" t="e">
+      <c r="K5" s="22" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L5" s="10" t="e">
+      <c r="L5" s="22" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M5" s="10" t="e">
+      <c r="M5" s="22" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="N5" s="10" t="e">
+      <c r="N5" s="22" t="e">
         <f t="shared" ref="N5" si="1">8-IFERROR(N4,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="O5" s="10" t="e">
+      <c r="O5" s="22" t="e">
         <f t="shared" ref="O5" si="2">8-IFERROR(O4,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P5" s="10" t="e">
+      <c r="P5" s="22" t="e">
         <f t="shared" ref="P5" si="3">8-IFERROR(P4,0)</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="6" ht="27.75" customHeight="1" spans="1:16">
-      <c r="A6" s="11" t="s">
+    <row r="6" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="20" t="s">
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="O6" s="21"/>
-      <c r="P6" s="22"/>
-    </row>
-    <row r="7" ht="27.75" customHeight="1" spans="1:16">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9" t="s">
+      <c r="O6" s="15"/>
+      <c r="P6" s="16"/>
+    </row>
+    <row r="7" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="J7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="K7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="L7" s="9" t="s">
+      <c r="L7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="9" t="s">
+      <c r="M7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="N7" s="9" t="s">
+      <c r="N7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="O7" s="9" t="s">
+      <c r="O7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="P7" s="9" t="s">
+      <c r="P7" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" ht="27.75" customHeight="1" spans="1:16">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:18" s="23" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="10" t="str">
+      <c r="B8" s="22" t="str">
         <f>IF(_Area1_day_shift!A3="","",_Area1_day_shift!A3)</f>
         <v/>
       </c>
-      <c r="C8" s="10" t="str">
+      <c r="C8" s="22" t="str">
         <f>IF(_Area1_day_shift!B3="","",_Area1_day_shift!B3)</f>
         <v/>
       </c>
-      <c r="D8" s="10" t="str">
+      <c r="D8" s="22" t="str">
         <f>IF(_Area1_day_shift!C3="","",_Area1_day_shift!C3)</f>
         <v/>
       </c>
-      <c r="E8" s="10" t="str">
+      <c r="E8" s="22" t="str">
         <f>IF(_Area1_day_shift!D3="","",_Area1_day_shift!D3)</f>
         <v/>
       </c>
-      <c r="F8" s="10" t="str">
+      <c r="F8" s="22" t="str">
         <f>IF(_Area1_day_shift!E3="","",_Area1_day_shift!E3)</f>
         <v/>
       </c>
-      <c r="G8" s="10" t="str">
+      <c r="G8" s="22" t="str">
         <f>IF(_Area1_day_shift!F3="","",_Area1_day_shift!F3)</f>
         <v/>
       </c>
-      <c r="H8" s="10" t="str">
+      <c r="H8" s="22" t="str">
         <f>IF(_Area1_day_shift!G3="","",_Area1_day_shift!G3)</f>
         <v/>
       </c>
-      <c r="I8" s="10" t="str">
+      <c r="I8" s="22" t="str">
         <f>IF(_Area1_day_shift!H3="","",_Area1_day_shift!H3)</f>
         <v/>
       </c>
-      <c r="J8" s="10" t="str">
+      <c r="J8" s="22" t="str">
         <f>IF(_Area1_day_shift!I3="","",_Area1_day_shift!I3)</f>
         <v/>
       </c>
-      <c r="K8" s="10" t="str">
+      <c r="K8" s="22" t="str">
         <f>IF(_Area1_day_shift!J3="","",_Area1_day_shift!J3)</f>
         <v/>
       </c>
-      <c r="L8" s="10" t="str">
+      <c r="L8" s="22" t="str">
         <f>IF(_Area1_day_shift!K3="","",_Area1_day_shift!K3)</f>
         <v/>
       </c>
-      <c r="M8" s="10" t="str">
+      <c r="M8" s="22" t="str">
         <f>IF(_Area1_day_shift!L3="","",_Area1_day_shift!L3)</f>
         <v/>
       </c>
-      <c r="N8" s="10" t="str">
+      <c r="N8" s="22" t="str">
         <f>IF(_Area1_day_shift!M3="","",_Area1_day_shift!M3)</f>
         <v/>
       </c>
-      <c r="O8" s="10" t="str">
+      <c r="O8" s="22" t="str">
         <f>IF(_Area1_day_shift!N3="","",_Area1_day_shift!N3)</f>
         <v/>
       </c>
-      <c r="P8" s="10" t="str">
+      <c r="P8" s="22" t="str">
         <f>IF(_Area1_day_shift!O3="","",_Area1_day_shift!O3)</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="27.75" customHeight="1" spans="1:16">
-      <c r="A9" s="9" t="s">
+    <row r="9" spans="1:18" s="23" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="10" t="e">
-        <f t="shared" ref="B9:P9" si="4">8-IFERROR(B8,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C9" s="10" t="e">
+      <c r="B9" s="22" t="e">
+        <f>8-IFERROR(B8,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C9" s="22" t="e">
+        <f t="shared" ref="B9:P9" si="4">8-IFERROR(C8,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D9" s="22" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D9" s="10" t="e">
+      <c r="E9" s="22" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E9" s="10" t="e">
+      <c r="F9" s="22" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F9" s="10" t="e">
+      <c r="G9" s="22" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G9" s="10" t="e">
+      <c r="H9" s="22" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H9" s="10" t="e">
+      <c r="I9" s="22" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I9" s="10" t="e">
+      <c r="J9" s="22" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J9" s="10" t="e">
+      <c r="K9" s="22" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K9" s="10" t="e">
+      <c r="L9" s="22" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L9" s="10" t="e">
+      <c r="M9" s="22" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M9" s="10" t="e">
+      <c r="N9" s="22" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="N9" s="10" t="e">
+      <c r="O9" s="22" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O9" s="10" t="e">
+      <c r="P9" s="22" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="P9" s="10" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="10" ht="27.75" customHeight="1" spans="1:16">
-      <c r="A10" s="11" t="s">
+    </row>
+    <row r="10" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="20" t="s">
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="O10" s="21"/>
-      <c r="P10" s="22"/>
-    </row>
-    <row r="11" ht="27.75" customHeight="1" spans="1:16">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9" t="s">
+      <c r="O10" s="15"/>
+      <c r="P10" s="16"/>
+    </row>
+    <row r="11" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="I11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="J11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K11" s="9" t="s">
+      <c r="K11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="L11" s="9" t="s">
+      <c r="L11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="M11" s="9" t="s">
+      <c r="M11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="N11" s="9" t="s">
+      <c r="N11" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="O11" s="9" t="s">
+      <c r="O11" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="P11" s="9" t="s">
+      <c r="P11" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" ht="27.75" customHeight="1" spans="1:16">
-      <c r="A12" s="9" t="s">
+    <row r="12" spans="1:18" s="23" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="10" t="str">
+      <c r="B12" s="22" t="str">
         <f>IF(_Area1_day_shift!A4="","",_Area1_day_shift!A4)</f>
         <v/>
       </c>
-      <c r="C12" s="10" t="str">
+      <c r="C12" s="22" t="str">
         <f>IF(_Area1_day_shift!B4="","",_Area1_day_shift!B4)</f>
         <v/>
       </c>
-      <c r="D12" s="10" t="str">
+      <c r="D12" s="22" t="str">
         <f>IF(_Area1_day_shift!C4="","",_Area1_day_shift!C4)</f>
         <v/>
       </c>
-      <c r="E12" s="10" t="str">
+      <c r="E12" s="22" t="str">
         <f>IF(_Area1_day_shift!D4="","",_Area1_day_shift!D4)</f>
         <v/>
       </c>
-      <c r="F12" s="10" t="str">
+      <c r="F12" s="22" t="str">
         <f>IF(_Area1_day_shift!E4="","",_Area1_day_shift!E4)</f>
         <v/>
       </c>
-      <c r="G12" s="10" t="str">
+      <c r="G12" s="22" t="str">
         <f>IF(_Area1_day_shift!F4="","",_Area1_day_shift!F4)</f>
         <v/>
       </c>
-      <c r="H12" s="10" t="str">
+      <c r="H12" s="22" t="str">
         <f>IF(_Area1_day_shift!G4="","",_Area1_day_shift!G4)</f>
         <v/>
       </c>
-      <c r="I12" s="10" t="str">
+      <c r="I12" s="22" t="str">
         <f>IF(_Area1_day_shift!H4="","",_Area1_day_shift!H4)</f>
         <v/>
       </c>
-      <c r="J12" s="10" t="str">
+      <c r="J12" s="22" t="str">
         <f>IF(_Area1_day_shift!I4="","",_Area1_day_shift!I4)</f>
         <v/>
       </c>
-      <c r="K12" s="10" t="str">
+      <c r="K12" s="22" t="str">
         <f>IF(_Area1_day_shift!J4="","",_Area1_day_shift!J4)</f>
         <v/>
       </c>
-      <c r="L12" s="10" t="str">
+      <c r="L12" s="22" t="str">
         <f>IF(_Area1_day_shift!K4="","",_Area1_day_shift!K4)</f>
         <v/>
       </c>
-      <c r="M12" s="10" t="str">
+      <c r="M12" s="22" t="str">
         <f>IF(_Area1_day_shift!L4="","",_Area1_day_shift!L4)</f>
         <v/>
       </c>
-      <c r="N12" s="10" t="str">
+      <c r="N12" s="22" t="str">
         <f>IF(_Area1_day_shift!M4="","",_Area1_day_shift!M4)</f>
         <v/>
       </c>
-      <c r="O12" s="10" t="str">
+      <c r="O12" s="22" t="str">
         <f>IF(_Area1_day_shift!N4="","",_Area1_day_shift!N4)</f>
         <v/>
       </c>
-      <c r="P12" s="10" t="str">
+      <c r="P12" s="22" t="str">
         <f>IF(_Area1_day_shift!O4="","",_Area1_day_shift!O4)</f>
         <v/>
       </c>
     </row>
-    <row r="13" ht="27.75" customHeight="1" spans="1:16">
-      <c r="A13" s="9" t="s">
+    <row r="13" spans="1:18" s="23" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="10" t="e">
+      <c r="B13" s="22" t="e">
         <f>8-IFERROR(B12,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C13" s="10" t="e">
+      <c r="C13" s="22" t="e">
         <f t="shared" ref="C13:P13" si="5">8-IFERROR(C12,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D13" s="10" t="e">
+      <c r="D13" s="22" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E13" s="10" t="e">
+      <c r="E13" s="22" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F13" s="10" t="e">
+      <c r="F13" s="22" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G13" s="10" t="e">
+      <c r="G13" s="22" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H13" s="10" t="e">
+      <c r="H13" s="22" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I13" s="10" t="e">
+      <c r="I13" s="22" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J13" s="10" t="e">
+      <c r="J13" s="22" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K13" s="10" t="e">
+      <c r="K13" s="22" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L13" s="10" t="e">
+      <c r="L13" s="22" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M13" s="10" t="e">
+      <c r="M13" s="22" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="N13" s="10" t="e">
+      <c r="N13" s="22" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O13" s="10" t="e">
+      <c r="O13" s="22" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="P13" s="10" t="e">
+      <c r="P13" s="22" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="14" ht="27.75" customHeight="1" spans="1:16">
-      <c r="A14" s="13" t="s">
+    <row r="14" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B14" s="8">
         <f>SUM(B4,B8,B12)</f>
         <v>0</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="8">
         <f t="shared" ref="C14:P14" si="6">SUM(C4,C8,C12)</f>
         <v>0</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="8">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="8">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F14" s="8">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G14" s="14">
+      <c r="G14" s="8">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H14" s="8">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I14" s="14">
+      <c r="I14" s="8">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J14" s="14">
+      <c r="J14" s="8">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K14" s="14">
+      <c r="K14" s="8">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L14" s="14">
+      <c r="L14" s="8">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M14" s="14">
+      <c r="M14" s="8">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="N14" s="14">
+      <c r="N14" s="8">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O14" s="14">
+      <c r="O14" s="8">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P14" s="14">
+      <c r="P14" s="8">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" ht="27.75" customHeight="1" spans="1:16">
-      <c r="A15" s="13" t="s">
+    <row r="15" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="14" t="e">
+      <c r="B15" s="8" t="e">
         <f>SUM(B5,B9,B13)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C15" s="14" t="e">
+      <c r="C15" s="8" t="e">
         <f t="shared" ref="C15:P15" si="7">SUM(C5,C9,C13)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D15" s="14" t="e">
+      <c r="D15" s="8" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E15" s="14" t="e">
+      <c r="E15" s="8" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F15" s="14" t="e">
+      <c r="F15" s="8" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G15" s="14" t="e">
+      <c r="G15" s="8" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H15" s="14" t="e">
+      <c r="H15" s="8" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I15" s="14" t="e">
+      <c r="I15" s="8" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J15" s="14" t="e">
+      <c r="J15" s="8" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K15" s="14" t="e">
+      <c r="K15" s="8" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L15" s="14" t="e">
+      <c r="L15" s="8" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M15" s="14" t="e">
+      <c r="M15" s="8" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="N15" s="14" t="e">
+      <c r="N15" s="8" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O15" s="14" t="e">
+      <c r="O15" s="8" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="P15" s="14" t="e">
+      <c r="P15" s="8" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="16" ht="27.75" customHeight="1" spans="1:16">
-      <c r="A16" s="15" t="s">
+    <row r="16" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="23"/>
-    </row>
-    <row r="17" ht="27.75" customHeight="1" spans="1:16">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9" t="s">
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="21"/>
+    </row>
+    <row r="17" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="G17" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H17" s="9" t="s">
+      <c r="H17" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I17" s="9" t="s">
+      <c r="I17" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J17" s="9" t="s">
+      <c r="J17" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K17" s="9" t="s">
+      <c r="K17" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="L17" s="9" t="s">
+      <c r="L17" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="M17" s="9" t="s">
+      <c r="M17" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="N17" s="9" t="s">
+      <c r="N17" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="O17" s="9" t="s">
+      <c r="O17" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="P17" s="9" t="s">
+      <c r="P17" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" ht="27.75" customHeight="1" spans="1:16">
-      <c r="A18" s="9" t="s">
+    <row r="18" spans="1:16" s="23" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="17" t="str">
+      <c r="B18" s="22" t="str">
         <f>IF(_Area2_month_day!A2="","",_Area2_month_day!A2)</f>
         <v/>
       </c>
-      <c r="C18" s="17" t="str">
+      <c r="C18" s="22" t="str">
         <f>IF(_Area2_month_day!B2="","",_Area2_month_day!B2)</f>
         <v/>
       </c>
-      <c r="D18" s="17" t="str">
+      <c r="D18" s="22" t="str">
         <f>IF(_Area2_month_day!C2="","",_Area2_month_day!C2)</f>
         <v/>
       </c>
-      <c r="E18" s="17" t="str">
+      <c r="E18" s="22" t="str">
         <f>IF(_Area2_month_day!D2="","",_Area2_month_day!D2)</f>
         <v/>
       </c>
-      <c r="F18" s="17" t="str">
+      <c r="F18" s="22" t="str">
         <f>IF(_Area2_month_day!E2="","",_Area2_month_day!E2)</f>
         <v/>
       </c>
-      <c r="G18" s="17" t="str">
+      <c r="G18" s="22" t="str">
         <f>IF(_Area2_month_day!F2="","",_Area2_month_day!F2)</f>
         <v/>
       </c>
-      <c r="H18" s="17" t="str">
+      <c r="H18" s="22" t="str">
         <f>IF(_Area2_month_day!G2="","",_Area2_month_day!G2)</f>
         <v/>
       </c>
-      <c r="I18" s="17" t="str">
+      <c r="I18" s="22" t="str">
         <f>IF(_Area2_month_day!H2="","",_Area2_month_day!H2)</f>
         <v/>
       </c>
-      <c r="J18" s="17" t="str">
+      <c r="J18" s="22" t="str">
         <f>IF(_Area2_month_day!I2="","",_Area2_month_day!I2)</f>
         <v/>
       </c>
-      <c r="K18" s="17" t="str">
+      <c r="K18" s="22" t="str">
         <f>IF(_Area2_month_day!J2="","",_Area2_month_day!J2)</f>
         <v/>
       </c>
-      <c r="L18" s="17" t="str">
+      <c r="L18" s="22" t="str">
         <f>IF(_Area2_month_day!K2="","",_Area2_month_day!K2)</f>
         <v/>
       </c>
-      <c r="M18" s="17" t="str">
+      <c r="M18" s="22" t="str">
         <f>IF(_Area2_month_day!L2="","",_Area2_month_day!L2)</f>
         <v/>
       </c>
-      <c r="N18" s="17" t="str">
+      <c r="N18" s="22" t="str">
         <f>IF(_Area2_month_day!M2="","",_Area2_month_day!M2)</f>
         <v/>
       </c>
-      <c r="O18" s="17" t="str">
+      <c r="O18" s="22" t="str">
         <f>IF(_Area2_month_day!N2="","",_Area2_month_day!N2)</f>
         <v/>
       </c>
-      <c r="P18" s="17" t="str">
+      <c r="P18" s="22" t="str">
         <f>IF(_Area2_month_day!O2="","",_Area2_month_day!O2)</f>
         <v/>
       </c>
     </row>
-    <row r="19" ht="27.75" customHeight="1" spans="1:16">
-      <c r="A19" s="9" t="s">
+    <row r="19" spans="1:16" s="23" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="18" t="str">
+      <c r="B19" s="22" t="str">
         <f>IF(_Area3_month_day!A2="","",_Area3_month_day!A2)</f>
         <v/>
       </c>
-      <c r="C19" s="18" t="str">
+      <c r="C19" s="22" t="str">
         <f>IF(_Area3_month_day!B2="","",_Area3_month_day!B2)</f>
         <v/>
       </c>
-      <c r="D19" s="18" t="str">
+      <c r="D19" s="22" t="str">
         <f>IF(_Area3_month_day!C2="","",_Area3_month_day!C2)</f>
         <v/>
       </c>
-      <c r="E19" s="18" t="str">
+      <c r="E19" s="22" t="str">
         <f>IF(_Area3_month_day!D2="","",_Area3_month_day!D2)</f>
         <v/>
       </c>
-      <c r="F19" s="18" t="str">
+      <c r="F19" s="22" t="str">
         <f>IF(_Area3_month_day!E2="","",_Area3_month_day!E2)</f>
         <v/>
       </c>
-      <c r="G19" s="18" t="str">
+      <c r="G19" s="22" t="str">
         <f>IF(_Area3_month_day!F2="","",_Area3_month_day!F2)</f>
         <v/>
       </c>
-      <c r="H19" s="18" t="str">
+      <c r="H19" s="22" t="str">
         <f>IF(_Area3_month_day!G2="","",_Area3_month_day!G2)</f>
         <v/>
       </c>
-      <c r="I19" s="18" t="str">
+      <c r="I19" s="22" t="str">
         <f>IF(_Area3_month_day!H2="","",_Area3_month_day!H2)</f>
         <v/>
       </c>
-      <c r="J19" s="18" t="str">
+      <c r="J19" s="22" t="str">
         <f>IF(_Area3_month_day!I2="","",_Area3_month_day!I2)</f>
         <v/>
       </c>
-      <c r="K19" s="18" t="str">
+      <c r="K19" s="22" t="str">
         <f>IF(_Area3_month_day!J2="","",_Area3_month_day!J2)</f>
         <v/>
       </c>
-      <c r="L19" s="18" t="str">
+      <c r="L19" s="22" t="str">
         <f>IF(_Area3_month_day!K2="","",_Area3_month_day!K2)</f>
         <v/>
       </c>
-      <c r="M19" s="18" t="str">
+      <c r="M19" s="22" t="str">
         <f>IF(_Area3_month_day!L2="","",_Area3_month_day!L2)</f>
         <v/>
       </c>
-      <c r="N19" s="18" t="str">
+      <c r="N19" s="22" t="str">
         <f>IF(_Area3_month_day!M2="","",_Area3_month_day!M2)</f>
         <v/>
       </c>
-      <c r="O19" s="18" t="str">
+      <c r="O19" s="22" t="str">
         <f>IF(_Area3_month_day!N2="","",_Area3_month_day!N2)</f>
         <v/>
       </c>
-      <c r="P19" s="18" t="str">
+      <c r="P19" s="22" t="str">
         <f>IF(_Area3_month_day!O2="","",_Area3_month_day!O2)</f>
         <v/>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A10:M10"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="A16:P16"/>
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A2:M2"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="A6:M6"/>
     <mergeCell ref="N6:P6"/>
-    <mergeCell ref="A10:M10"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="A16:P16"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>27</v>
       </c>
@@ -2365,23 +1755,22 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>27</v>
       </c>
@@ -2429,27 +1818,26 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:C1"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="36.125" customWidth="1"/>
+    <col min="1" max="6" width="36.08984375" customWidth="1"/>
     <col min="7" max="9" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -2497,7 +1885,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/excel/finished/能介/柜区风机煤压机时间统计表.xlsx
+++ b/excel/finished/能介/柜区风机煤压机时间统计表.xlsx
@@ -1,23 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\韶钢\程序设计\报表模板\能介\能介\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Area_Runtime_Main" sheetId="1" r:id="rId1"/>
     <sheet name="_Area1_day_shift" sheetId="2" r:id="rId2"/>
     <sheet name="_Area2_month_day" sheetId="4" r:id="rId3"/>
     <sheet name="_Area3_month_day" sheetId="3" r:id="rId4"/>
+    <sheet name="_metadata" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -155,7 +151,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,9 +164,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="20"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -176,6 +177,18 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <name val="仿宋"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="6">
@@ -210,7 +223,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -330,13 +343,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -355,12 +382,21 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -370,7 +406,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -379,48 +445,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -715,776 +752,777 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I10" workbookViewId="0">
-      <selection activeCell="V16" sqref="V16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="19.36328125" customWidth="1"/>
-    <col min="2" max="6" width="11.08984375" customWidth="1"/>
-    <col min="7" max="7" width="14.6328125" customWidth="1"/>
-    <col min="8" max="10" width="11.08984375" customWidth="1"/>
-    <col min="11" max="13" width="9.08984375" customWidth="1"/>
+    <col min="1" max="1" width="19.375" customWidth="1"/>
+    <col min="2" max="6" width="11.125" customWidth="1"/>
+    <col min="7" max="7" width="14.625" customWidth="1"/>
+    <col min="8" max="10" width="11.125" customWidth="1"/>
+    <col min="11" max="13" width="9.125" customWidth="1"/>
     <col min="14" max="14" width="13" customWidth="1"/>
-    <col min="15" max="16" width="11.08984375" customWidth="1"/>
-    <col min="18" max="18" width="69.6328125" hidden="1" customWidth="1"/>
+    <col min="15" max="16" width="11.125" customWidth="1"/>
+    <col min="18" max="18" width="69.625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G1" s="11">
-        <v>43355</v>
-      </c>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="R1" s="10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+    <row r="1" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G1" s="22">
+        <f>_metadata!B1</f>
+        <v>0</v>
+      </c>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="24"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="R1" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="14" t="s">
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="15"/>
-      <c r="P2" s="16"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="18"/>
       <c r="R2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6" t="s">
+    <row r="3" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="N3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="O3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="P3" s="7" t="s">
         <v>6</v>
       </c>
       <c r="R3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="23" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+    <row r="4" spans="1:18" s="6" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="22" t="str">
+      <c r="B4" s="8" t="str">
         <f>IF(_Area1_day_shift!A2="","",_Area1_day_shift!A2)</f>
         <v/>
       </c>
-      <c r="C4" s="22" t="str">
+      <c r="C4" s="8" t="str">
         <f>IF(_Area1_day_shift!B2="","",_Area1_day_shift!B2)</f>
         <v/>
       </c>
-      <c r="D4" s="22" t="str">
+      <c r="D4" s="8" t="str">
         <f>IF(_Area1_day_shift!C2="","",_Area1_day_shift!C2)</f>
         <v/>
       </c>
-      <c r="E4" s="22" t="str">
+      <c r="E4" s="8" t="str">
         <f>IF(_Area1_day_shift!D2="","",_Area1_day_shift!D2)</f>
         <v/>
       </c>
-      <c r="F4" s="22" t="str">
+      <c r="F4" s="8" t="str">
         <f>IF(_Area1_day_shift!E2="","",_Area1_day_shift!E2)</f>
         <v/>
       </c>
-      <c r="G4" s="22" t="str">
+      <c r="G4" s="8" t="str">
         <f>IF(_Area1_day_shift!F2="","",_Area1_day_shift!F2)</f>
         <v/>
       </c>
-      <c r="H4" s="22" t="str">
+      <c r="H4" s="8" t="str">
         <f>IF(_Area1_day_shift!G2="","",_Area1_day_shift!G2)</f>
         <v/>
       </c>
-      <c r="I4" s="22" t="str">
+      <c r="I4" s="8" t="str">
         <f>IF(_Area1_day_shift!H2="","",_Area1_day_shift!H2)</f>
         <v/>
       </c>
-      <c r="J4" s="22" t="str">
+      <c r="J4" s="8" t="str">
         <f>IF(_Area1_day_shift!I2="","",_Area1_day_shift!I2)</f>
         <v/>
       </c>
-      <c r="K4" s="22" t="str">
+      <c r="K4" s="8" t="str">
         <f>IF(_Area1_day_shift!J2="","",_Area1_day_shift!J2)</f>
         <v/>
       </c>
-      <c r="L4" s="22" t="str">
+      <c r="L4" s="8" t="str">
         <f>IF(_Area1_day_shift!K2="","",_Area1_day_shift!K2)</f>
         <v/>
       </c>
-      <c r="M4" s="22" t="str">
+      <c r="M4" s="8" t="str">
         <f>IF(_Area1_day_shift!L2="","",_Area1_day_shift!L2)</f>
         <v/>
       </c>
-      <c r="N4" s="22" t="str">
+      <c r="N4" s="8" t="str">
         <f>IF(_Area1_day_shift!M2="","",_Area1_day_shift!M2)</f>
         <v/>
       </c>
-      <c r="O4" s="22" t="str">
+      <c r="O4" s="8" t="str">
         <f>IF(_Area1_day_shift!N2="","",_Area1_day_shift!N2)</f>
         <v/>
       </c>
-      <c r="P4" s="22" t="str">
+      <c r="P4" s="8" t="str">
         <f>IF(_Area1_day_shift!O2="","",_Area1_day_shift!O2)</f>
         <v/>
       </c>
-      <c r="R4" s="23" t="s">
+      <c r="R4" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="23" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+    <row r="5" spans="1:18" s="6" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="22" t="e">
-        <f>8-IFERROR(B4,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C5" s="22" t="e">
-        <f t="shared" ref="C5:M5" si="0">8-IFERROR(C4,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D5" s="22" t="e">
+      <c r="B5" s="8" t="str">
+        <f t="shared" ref="B5:P5" si="0">IFERROR(8-IFERROR(B4,0),"")</f>
+        <v/>
+      </c>
+      <c r="C5" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E5" s="22" t="e">
+        <v/>
+      </c>
+      <c r="D5" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F5" s="22" t="e">
+        <v/>
+      </c>
+      <c r="E5" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G5" s="22" t="e">
+        <v/>
+      </c>
+      <c r="F5" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H5" s="22" t="e">
+        <v/>
+      </c>
+      <c r="G5" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I5" s="22" t="e">
+        <v/>
+      </c>
+      <c r="H5" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J5" s="22" t="e">
+        <v/>
+      </c>
+      <c r="I5" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K5" s="22" t="e">
+        <v/>
+      </c>
+      <c r="J5" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L5" s="22" t="e">
+        <v/>
+      </c>
+      <c r="K5" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M5" s="22" t="e">
+        <v/>
+      </c>
+      <c r="L5" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N5" s="22" t="e">
-        <f t="shared" ref="N5" si="1">8-IFERROR(N4,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O5" s="22" t="e">
-        <f t="shared" ref="O5" si="2">8-IFERROR(O4,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P5" s="22" t="e">
-        <f t="shared" ref="P5" si="3">8-IFERROR(P4,0)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+        <v/>
+      </c>
+      <c r="M5" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N5" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O5" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P5" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="14" t="s">
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="O6" s="15"/>
-      <c r="P6" s="16"/>
-    </row>
-    <row r="7" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6" t="s">
+      <c r="O6" s="17"/>
+      <c r="P6" s="18"/>
+    </row>
+    <row r="7" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="L7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="6" t="s">
+      <c r="M7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="N7" s="6" t="s">
+      <c r="N7" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="O7" s="6" t="s">
+      <c r="O7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="P7" s="6" t="s">
+      <c r="P7" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="23" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+    <row r="8" spans="1:18" s="6" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="22" t="str">
+      <c r="B8" s="8" t="str">
         <f>IF(_Area1_day_shift!A3="","",_Area1_day_shift!A3)</f>
         <v/>
       </c>
-      <c r="C8" s="22" t="str">
+      <c r="C8" s="8" t="str">
         <f>IF(_Area1_day_shift!B3="","",_Area1_day_shift!B3)</f>
         <v/>
       </c>
-      <c r="D8" s="22" t="str">
+      <c r="D8" s="8" t="str">
         <f>IF(_Area1_day_shift!C3="","",_Area1_day_shift!C3)</f>
         <v/>
       </c>
-      <c r="E8" s="22" t="str">
+      <c r="E8" s="8" t="str">
         <f>IF(_Area1_day_shift!D3="","",_Area1_day_shift!D3)</f>
         <v/>
       </c>
-      <c r="F8" s="22" t="str">
+      <c r="F8" s="8" t="str">
         <f>IF(_Area1_day_shift!E3="","",_Area1_day_shift!E3)</f>
         <v/>
       </c>
-      <c r="G8" s="22" t="str">
+      <c r="G8" s="8" t="str">
         <f>IF(_Area1_day_shift!F3="","",_Area1_day_shift!F3)</f>
         <v/>
       </c>
-      <c r="H8" s="22" t="str">
+      <c r="H8" s="8" t="str">
         <f>IF(_Area1_day_shift!G3="","",_Area1_day_shift!G3)</f>
         <v/>
       </c>
-      <c r="I8" s="22" t="str">
+      <c r="I8" s="8" t="str">
         <f>IF(_Area1_day_shift!H3="","",_Area1_day_shift!H3)</f>
         <v/>
       </c>
-      <c r="J8" s="22" t="str">
+      <c r="J8" s="8" t="str">
         <f>IF(_Area1_day_shift!I3="","",_Area1_day_shift!I3)</f>
         <v/>
       </c>
-      <c r="K8" s="22" t="str">
+      <c r="K8" s="8" t="str">
         <f>IF(_Area1_day_shift!J3="","",_Area1_day_shift!J3)</f>
         <v/>
       </c>
-      <c r="L8" s="22" t="str">
+      <c r="L8" s="8" t="str">
         <f>IF(_Area1_day_shift!K3="","",_Area1_day_shift!K3)</f>
         <v/>
       </c>
-      <c r="M8" s="22" t="str">
+      <c r="M8" s="8" t="str">
         <f>IF(_Area1_day_shift!L3="","",_Area1_day_shift!L3)</f>
         <v/>
       </c>
-      <c r="N8" s="22" t="str">
+      <c r="N8" s="8" t="str">
         <f>IF(_Area1_day_shift!M3="","",_Area1_day_shift!M3)</f>
         <v/>
       </c>
-      <c r="O8" s="22" t="str">
+      <c r="O8" s="8" t="str">
         <f>IF(_Area1_day_shift!N3="","",_Area1_day_shift!N3)</f>
         <v/>
       </c>
-      <c r="P8" s="22" t="str">
+      <c r="P8" s="8" t="str">
         <f>IF(_Area1_day_shift!O3="","",_Area1_day_shift!O3)</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:18" s="23" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
+    <row r="9" spans="1:18" s="6" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="22" t="e">
-        <f>8-IFERROR(B8,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C9" s="22" t="e">
-        <f t="shared" ref="B9:P9" si="4">8-IFERROR(C8,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D9" s="22" t="e">
+      <c r="B9" s="8" t="str">
+        <f t="shared" ref="B9:P9" si="1">IFERROR(8-IFERROR(B8,0),"")</f>
+        <v/>
+      </c>
+      <c r="C9" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D9" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E9" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F9" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G9" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H9" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I9" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J9" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K9" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L9" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M9" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N9" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="O9" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="P9" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="O10" s="17"/>
+      <c r="P10" s="18"/>
+    </row>
+    <row r="11" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" s="6" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="8" t="str">
+        <f>IF(_Area1_day_shift!A4="","",_Area1_day_shift!A4)</f>
+        <v/>
+      </c>
+      <c r="C12" s="8" t="str">
+        <f>IF(_Area1_day_shift!B4="","",_Area1_day_shift!B4)</f>
+        <v/>
+      </c>
+      <c r="D12" s="8" t="str">
+        <f>IF(_Area1_day_shift!C4="","",_Area1_day_shift!C4)</f>
+        <v/>
+      </c>
+      <c r="E12" s="8" t="str">
+        <f>IF(_Area1_day_shift!D4="","",_Area1_day_shift!D4)</f>
+        <v/>
+      </c>
+      <c r="F12" s="8" t="str">
+        <f>IF(_Area1_day_shift!E4="","",_Area1_day_shift!E4)</f>
+        <v/>
+      </c>
+      <c r="G12" s="8" t="str">
+        <f>IF(_Area1_day_shift!F4="","",_Area1_day_shift!F4)</f>
+        <v/>
+      </c>
+      <c r="H12" s="8" t="str">
+        <f>IF(_Area1_day_shift!G4="","",_Area1_day_shift!G4)</f>
+        <v/>
+      </c>
+      <c r="I12" s="8" t="str">
+        <f>IF(_Area1_day_shift!H4="","",_Area1_day_shift!H4)</f>
+        <v/>
+      </c>
+      <c r="J12" s="8" t="str">
+        <f>IF(_Area1_day_shift!I4="","",_Area1_day_shift!I4)</f>
+        <v/>
+      </c>
+      <c r="K12" s="8" t="str">
+        <f>IF(_Area1_day_shift!J4="","",_Area1_day_shift!J4)</f>
+        <v/>
+      </c>
+      <c r="L12" s="8" t="str">
+        <f>IF(_Area1_day_shift!K4="","",_Area1_day_shift!K4)</f>
+        <v/>
+      </c>
+      <c r="M12" s="8" t="str">
+        <f>IF(_Area1_day_shift!L4="","",_Area1_day_shift!L4)</f>
+        <v/>
+      </c>
+      <c r="N12" s="8" t="str">
+        <f>IF(_Area1_day_shift!M4="","",_Area1_day_shift!M4)</f>
+        <v/>
+      </c>
+      <c r="O12" s="8" t="str">
+        <f>IF(_Area1_day_shift!N4="","",_Area1_day_shift!N4)</f>
+        <v/>
+      </c>
+      <c r="P12" s="8" t="str">
+        <f>IF(_Area1_day_shift!O4="","",_Area1_day_shift!O4)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:18" s="6" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="8" t="str">
+        <f t="shared" ref="B13:P13" si="2">IFERROR(8-IFERROR(B12,0),"")</f>
+        <v/>
+      </c>
+      <c r="C13" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D13" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E13" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F13" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G13" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="H13" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I13" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J13" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K13" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L13" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M13" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N13" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O13" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="P13" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="10">
+        <f>SUM(B4,B8,B12)</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="11">
+        <f t="shared" ref="C14:P14" si="3">SUM(C4,C8,C12)</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N14" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P14" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="11">
+        <f>SUM(B5,B9,B13)</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="11">
+        <f t="shared" ref="C15:P15" si="4">SUM(C5,C9,C13)</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="11">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E9" s="22" t="e">
+        <v>0</v>
+      </c>
+      <c r="E15" s="11">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F9" s="22" t="e">
+        <v>0</v>
+      </c>
+      <c r="F15" s="11">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G9" s="22" t="e">
+        <v>0</v>
+      </c>
+      <c r="G15" s="11">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H9" s="22" t="e">
+        <v>0</v>
+      </c>
+      <c r="H15" s="11">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I9" s="22" t="e">
+        <v>0</v>
+      </c>
+      <c r="I15" s="11">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J9" s="22" t="e">
+        <v>0</v>
+      </c>
+      <c r="J15" s="11">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K9" s="22" t="e">
+        <v>0</v>
+      </c>
+      <c r="K15" s="11">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L9" s="22" t="e">
+        <v>0</v>
+      </c>
+      <c r="L15" s="11">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M9" s="22" t="e">
+        <v>0</v>
+      </c>
+      <c r="M15" s="11">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N9" s="22" t="e">
+        <v>0</v>
+      </c>
+      <c r="N15" s="11">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O9" s="22" t="e">
+        <v>0</v>
+      </c>
+      <c r="O15" s="11">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P9" s="22" t="e">
+        <v>0</v>
+      </c>
+      <c r="P15" s="11">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="O10" s="15"/>
-      <c r="P10" s="16"/>
-    </row>
-    <row r="11" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="N11" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="O11" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="P11" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" s="23" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="22" t="str">
-        <f>IF(_Area1_day_shift!A4="","",_Area1_day_shift!A4)</f>
-        <v/>
-      </c>
-      <c r="C12" s="22" t="str">
-        <f>IF(_Area1_day_shift!B4="","",_Area1_day_shift!B4)</f>
-        <v/>
-      </c>
-      <c r="D12" s="22" t="str">
-        <f>IF(_Area1_day_shift!C4="","",_Area1_day_shift!C4)</f>
-        <v/>
-      </c>
-      <c r="E12" s="22" t="str">
-        <f>IF(_Area1_day_shift!D4="","",_Area1_day_shift!D4)</f>
-        <v/>
-      </c>
-      <c r="F12" s="22" t="str">
-        <f>IF(_Area1_day_shift!E4="","",_Area1_day_shift!E4)</f>
-        <v/>
-      </c>
-      <c r="G12" s="22" t="str">
-        <f>IF(_Area1_day_shift!F4="","",_Area1_day_shift!F4)</f>
-        <v/>
-      </c>
-      <c r="H12" s="22" t="str">
-        <f>IF(_Area1_day_shift!G4="","",_Area1_day_shift!G4)</f>
-        <v/>
-      </c>
-      <c r="I12" s="22" t="str">
-        <f>IF(_Area1_day_shift!H4="","",_Area1_day_shift!H4)</f>
-        <v/>
-      </c>
-      <c r="J12" s="22" t="str">
-        <f>IF(_Area1_day_shift!I4="","",_Area1_day_shift!I4)</f>
-        <v/>
-      </c>
-      <c r="K12" s="22" t="str">
-        <f>IF(_Area1_day_shift!J4="","",_Area1_day_shift!J4)</f>
-        <v/>
-      </c>
-      <c r="L12" s="22" t="str">
-        <f>IF(_Area1_day_shift!K4="","",_Area1_day_shift!K4)</f>
-        <v/>
-      </c>
-      <c r="M12" s="22" t="str">
-        <f>IF(_Area1_day_shift!L4="","",_Area1_day_shift!L4)</f>
-        <v/>
-      </c>
-      <c r="N12" s="22" t="str">
-        <f>IF(_Area1_day_shift!M4="","",_Area1_day_shift!M4)</f>
-        <v/>
-      </c>
-      <c r="O12" s="22" t="str">
-        <f>IF(_Area1_day_shift!N4="","",_Area1_day_shift!N4)</f>
-        <v/>
-      </c>
-      <c r="P12" s="22" t="str">
-        <f>IF(_Area1_day_shift!O4="","",_Area1_day_shift!O4)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:18" s="23" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="22" t="e">
-        <f>8-IFERROR(B12,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C13" s="22" t="e">
-        <f t="shared" ref="C13:P13" si="5">8-IFERROR(C12,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D13" s="22" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E13" s="22" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F13" s="22" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G13" s="22" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H13" s="22" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I13" s="22" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J13" s="22" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K13" s="22" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L13" s="22" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M13" s="22" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N13" s="22" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O13" s="22" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P13" s="22" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="8">
-        <f>SUM(B4,B8,B12)</f>
-        <v>0</v>
-      </c>
-      <c r="C14" s="8">
-        <f t="shared" ref="C14:P14" si="6">SUM(C4,C8,C12)</f>
-        <v>0</v>
-      </c>
-      <c r="D14" s="8">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E14" s="8">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F14" s="8">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G14" s="8">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H14" s="8">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="8">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="8">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="8">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="L14" s="8">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M14" s="8">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="N14" s="8">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="O14" s="8">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P14" s="8">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="8" t="e">
-        <f>SUM(B5,B9,B13)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C15" s="8" t="e">
-        <f t="shared" ref="C15:P15" si="7">SUM(C5,C9,C13)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D15" s="8" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E15" s="8" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F15" s="8" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G15" s="8" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H15" s="8" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I15" s="8" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J15" s="8" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K15" s="8" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L15" s="8" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M15" s="8" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N15" s="8" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O15" s="8" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P15" s="8" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="19" t="s">
         <v>26</v>
       </c>
@@ -1504,180 +1542,180 @@
       <c r="O16" s="20"/>
       <c r="P16" s="21"/>
     </row>
-    <row r="17" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6" t="s">
+    <row r="17" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="H17" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I17" s="6" t="s">
+      <c r="I17" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="J17" s="6" t="s">
+      <c r="J17" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="K17" s="6" t="s">
+      <c r="K17" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="L17" s="6" t="s">
+      <c r="L17" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="M17" s="6" t="s">
+      <c r="M17" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="N17" s="6" t="s">
+      <c r="N17" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="O17" s="6" t="s">
+      <c r="O17" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="P17" s="6" t="s">
+      <c r="P17" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:16" s="23" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="22" t="s">
+    <row r="18" spans="1:16" s="6" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="22" t="str">
+      <c r="B18" s="8" t="str">
         <f>IF(_Area2_month_day!A2="","",_Area2_month_day!A2)</f>
         <v/>
       </c>
-      <c r="C18" s="22" t="str">
+      <c r="C18" s="8" t="str">
         <f>IF(_Area2_month_day!B2="","",_Area2_month_day!B2)</f>
         <v/>
       </c>
-      <c r="D18" s="22" t="str">
+      <c r="D18" s="8" t="str">
         <f>IF(_Area2_month_day!C2="","",_Area2_month_day!C2)</f>
         <v/>
       </c>
-      <c r="E18" s="22" t="str">
+      <c r="E18" s="8" t="str">
         <f>IF(_Area2_month_day!D2="","",_Area2_month_day!D2)</f>
         <v/>
       </c>
-      <c r="F18" s="22" t="str">
+      <c r="F18" s="8" t="str">
         <f>IF(_Area2_month_day!E2="","",_Area2_month_day!E2)</f>
         <v/>
       </c>
-      <c r="G18" s="22" t="str">
+      <c r="G18" s="8" t="str">
         <f>IF(_Area2_month_day!F2="","",_Area2_month_day!F2)</f>
         <v/>
       </c>
-      <c r="H18" s="22" t="str">
+      <c r="H18" s="8" t="str">
         <f>IF(_Area2_month_day!G2="","",_Area2_month_day!G2)</f>
         <v/>
       </c>
-      <c r="I18" s="22" t="str">
+      <c r="I18" s="8" t="str">
         <f>IF(_Area2_month_day!H2="","",_Area2_month_day!H2)</f>
         <v/>
       </c>
-      <c r="J18" s="22" t="str">
+      <c r="J18" s="8" t="str">
         <f>IF(_Area2_month_day!I2="","",_Area2_month_day!I2)</f>
         <v/>
       </c>
-      <c r="K18" s="22" t="str">
+      <c r="K18" s="8" t="str">
         <f>IF(_Area2_month_day!J2="","",_Area2_month_day!J2)</f>
         <v/>
       </c>
-      <c r="L18" s="22" t="str">
+      <c r="L18" s="8" t="str">
         <f>IF(_Area2_month_day!K2="","",_Area2_month_day!K2)</f>
         <v/>
       </c>
-      <c r="M18" s="22" t="str">
+      <c r="M18" s="8" t="str">
         <f>IF(_Area2_month_day!L2="","",_Area2_month_day!L2)</f>
         <v/>
       </c>
-      <c r="N18" s="22" t="str">
+      <c r="N18" s="8" t="str">
         <f>IF(_Area2_month_day!M2="","",_Area2_month_day!M2)</f>
         <v/>
       </c>
-      <c r="O18" s="22" t="str">
+      <c r="O18" s="8" t="str">
         <f>IF(_Area2_month_day!N2="","",_Area2_month_day!N2)</f>
         <v/>
       </c>
-      <c r="P18" s="22" t="str">
+      <c r="P18" s="8" t="str">
         <f>IF(_Area2_month_day!O2="","",_Area2_month_day!O2)</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:16" s="23" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="22" t="s">
+    <row r="19" spans="1:16" s="6" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="22" t="str">
+      <c r="B19" s="8" t="str">
         <f>IF(_Area3_month_day!A2="","",_Area3_month_day!A2)</f>
         <v/>
       </c>
-      <c r="C19" s="22" t="str">
+      <c r="C19" s="8" t="str">
         <f>IF(_Area3_month_day!B2="","",_Area3_month_day!B2)</f>
         <v/>
       </c>
-      <c r="D19" s="22" t="str">
+      <c r="D19" s="8" t="str">
         <f>IF(_Area3_month_day!C2="","",_Area3_month_day!C2)</f>
         <v/>
       </c>
-      <c r="E19" s="22" t="str">
+      <c r="E19" s="8" t="str">
         <f>IF(_Area3_month_day!D2="","",_Area3_month_day!D2)</f>
         <v/>
       </c>
-      <c r="F19" s="22" t="str">
+      <c r="F19" s="8" t="str">
         <f>IF(_Area3_month_day!E2="","",_Area3_month_day!E2)</f>
         <v/>
       </c>
-      <c r="G19" s="22" t="str">
+      <c r="G19" s="8" t="str">
         <f>IF(_Area3_month_day!F2="","",_Area3_month_day!F2)</f>
         <v/>
       </c>
-      <c r="H19" s="22" t="str">
+      <c r="H19" s="8" t="str">
         <f>IF(_Area3_month_day!G2="","",_Area3_month_day!G2)</f>
         <v/>
       </c>
-      <c r="I19" s="22" t="str">
+      <c r="I19" s="8" t="str">
         <f>IF(_Area3_month_day!H2="","",_Area3_month_day!H2)</f>
         <v/>
       </c>
-      <c r="J19" s="22" t="str">
+      <c r="J19" s="8" t="str">
         <f>IF(_Area3_month_day!I2="","",_Area3_month_day!I2)</f>
         <v/>
       </c>
-      <c r="K19" s="22" t="str">
+      <c r="K19" s="8" t="str">
         <f>IF(_Area3_month_day!J2="","",_Area3_month_day!J2)</f>
         <v/>
       </c>
-      <c r="L19" s="22" t="str">
+      <c r="L19" s="8" t="str">
         <f>IF(_Area3_month_day!K2="","",_Area3_month_day!K2)</f>
         <v/>
       </c>
-      <c r="M19" s="22" t="str">
+      <c r="M19" s="8" t="str">
         <f>IF(_Area3_month_day!L2="","",_Area3_month_day!L2)</f>
         <v/>
       </c>
-      <c r="N19" s="22" t="str">
+      <c r="N19" s="8" t="str">
         <f>IF(_Area3_month_day!M2="","",_Area3_month_day!M2)</f>
         <v/>
       </c>
-      <c r="O19" s="22" t="str">
+      <c r="O19" s="8" t="str">
         <f>IF(_Area3_month_day!N2="","",_Area3_month_day!N2)</f>
         <v/>
       </c>
-      <c r="P19" s="22" t="str">
+      <c r="P19" s="8" t="str">
         <f>IF(_Area3_month_day!O2="","",_Area3_month_day!O2)</f>
         <v/>
       </c>
@@ -1695,7 +1733,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
@@ -1705,9 +1743,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>27</v>
       </c>
@@ -1768,9 +1806,9 @@
       <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>27</v>
       </c>
@@ -1831,13 +1869,13 @@
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="6" width="36.08984375" customWidth="1"/>
+    <col min="1" max="6" width="36.125" customWidth="1"/>
     <col min="7" max="9" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -1888,4 +1926,19 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/excel/finished/能介/柜区风机煤压机时间统计表.xlsx
+++ b/excel/finished/能介/柜区风机煤压机时间统计表.xlsx
@@ -151,10 +151,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="177" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -223,7 +219,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -232,15 +228,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -281,15 +268,6 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -333,17 +311,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -363,7 +330,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -385,21 +352,15 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -409,43 +370,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -753,7 +705,7 @@
   <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:J1"/>
+      <selection activeCell="B18" sqref="B18:P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -769,41 +721,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G1" s="22">
-        <f>_metadata!B1</f>
-        <v>0</v>
-      </c>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="24"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="R1" s="13" t="s">
+      <c r="G1" s="17">
+        <f>_metadata!B2</f>
+        <v>0</v>
+      </c>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="19"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="R1" s="11" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="16" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="17"/>
-      <c r="P2" s="18"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="14"/>
       <c r="R2" t="s">
         <v>3</v>
       </c>
@@ -993,26 +945,26 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="16" t="s">
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="O6" s="17"/>
-      <c r="P6" s="18"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="14"/>
     </row>
     <row r="7" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="7"/>
@@ -1193,26 +1145,26 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="16" t="s">
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="O10" s="17"/>
-      <c r="P10" s="18"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="14"/>
     </row>
     <row r="11" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="7"/>
@@ -1396,63 +1348,63 @@
       <c r="A14" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="8">
         <f>SUM(B4,B8,B12)</f>
         <v>0</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="8">
         <f t="shared" ref="C14:P14" si="3">SUM(C4,C8,C12)</f>
         <v>0</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H14" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I14" s="11">
+      <c r="I14" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J14" s="11">
+      <c r="J14" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K14" s="11">
+      <c r="K14" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L14" s="11">
+      <c r="L14" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M14" s="11">
+      <c r="M14" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N14" s="11">
+      <c r="N14" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O14" s="11">
+      <c r="O14" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P14" s="11">
+      <c r="P14" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -1461,86 +1413,86 @@
       <c r="A15" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="8">
         <f>SUM(B5,B9,B13)</f>
         <v>0</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="8">
         <f t="shared" ref="C15:P15" si="4">SUM(C5,C9,C13)</f>
         <v>0</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H15" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I15" s="11">
+      <c r="I15" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J15" s="11">
+      <c r="J15" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K15" s="11">
+      <c r="K15" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L15" s="11">
+      <c r="L15" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M15" s="11">
+      <c r="M15" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N15" s="11">
+      <c r="N15" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O15" s="11">
+      <c r="O15" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P15" s="11">
+      <c r="P15" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="21"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="14"/>
     </row>
     <row r="17" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="7"/>

--- a/excel/finished/能介/柜区风机煤压机时间统计表.xlsx
+++ b/excel/finished/能介/柜区风机煤压机时间统计表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Area_Runtime_Main" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42">
   <si>
     <t>接口说明：http://10.66.3.220:8080/swagger-ui.html#/ 
 传入参数：该表的所有接口需要传入tag名、日期即可（如2018/9/12）</t>
@@ -150,8 +150,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,34 +167,161 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="13"/>
+      <name val="仿宋"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <name val="仿宋"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -218,13 +352,223 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="20">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -268,6 +612,37 @@
       </left>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -288,49 +663,265 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
+      <right style="thin">
         <color auto="1"/>
-      </top>
+      </right>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -352,60 +943,116 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -416,7 +1063,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -696,182 +1343,182 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:P19"/>
+      <selection activeCell="G1" sqref="G1:J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="19.375" customWidth="1"/>
-    <col min="2" max="6" width="11.125" customWidth="1"/>
-    <col min="7" max="7" width="14.625" customWidth="1"/>
-    <col min="8" max="10" width="11.125" customWidth="1"/>
-    <col min="11" max="13" width="9.125" customWidth="1"/>
+    <col min="1" max="1" width="19.3666666666667" customWidth="1"/>
+    <col min="2" max="6" width="11.0916666666667" customWidth="1"/>
+    <col min="7" max="7" width="14.6333333333333" customWidth="1"/>
+    <col min="8" max="10" width="11.0916666666667" customWidth="1"/>
+    <col min="11" max="13" width="9.09166666666667" customWidth="1"/>
     <col min="14" max="14" width="13" customWidth="1"/>
-    <col min="15" max="16" width="11.125" customWidth="1"/>
-    <col min="18" max="18" width="69.625" hidden="1" customWidth="1"/>
+    <col min="15" max="16" width="11.0916666666667" customWidth="1"/>
+    <col min="18" max="18" width="69.6333333333333" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G1" s="17">
-        <f>_metadata!B2</f>
-        <v>0</v>
-      </c>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
+    <row r="1" ht="45" customHeight="1" spans="7:18">
+      <c r="G1" s="7" t="str">
+        <f>IF(_metadata!B2="","",_metadata!B2)</f>
+        <v/>
+      </c>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
       <c r="J1" s="19"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="R1" s="11" t="s">
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="R1" s="25" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="15" t="s">
+    <row r="2" ht="27.75" customHeight="1" spans="1:18">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="12" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="13"/>
-      <c r="P2" s="14"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="23"/>
       <c r="R2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7" t="s">
+    <row r="3" ht="27.75" customHeight="1" spans="1:18">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="L3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="N3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="O3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="P3" s="11" t="s">
         <v>6</v>
       </c>
       <c r="R3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="6" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="8" t="s">
+    <row r="4" s="6" customFormat="1" ht="27.75" customHeight="1" spans="1:18">
+      <c r="A4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="8" t="str">
+      <c r="B4" s="12" t="str">
         <f>IF(_Area1_day_shift!A2="","",_Area1_day_shift!A2)</f>
         <v/>
       </c>
-      <c r="C4" s="8" t="str">
+      <c r="C4" s="12" t="str">
         <f>IF(_Area1_day_shift!B2="","",_Area1_day_shift!B2)</f>
         <v/>
       </c>
-      <c r="D4" s="8" t="str">
+      <c r="D4" s="12" t="str">
         <f>IF(_Area1_day_shift!C2="","",_Area1_day_shift!C2)</f>
         <v/>
       </c>
-      <c r="E4" s="8" t="str">
+      <c r="E4" s="12" t="str">
         <f>IF(_Area1_day_shift!D2="","",_Area1_day_shift!D2)</f>
         <v/>
       </c>
-      <c r="F4" s="8" t="str">
+      <c r="F4" s="12" t="str">
         <f>IF(_Area1_day_shift!E2="","",_Area1_day_shift!E2)</f>
         <v/>
       </c>
-      <c r="G4" s="8" t="str">
+      <c r="G4" s="12" t="str">
         <f>IF(_Area1_day_shift!F2="","",_Area1_day_shift!F2)</f>
         <v/>
       </c>
-      <c r="H4" s="8" t="str">
+      <c r="H4" s="12" t="str">
         <f>IF(_Area1_day_shift!G2="","",_Area1_day_shift!G2)</f>
         <v/>
       </c>
-      <c r="I4" s="8" t="str">
+      <c r="I4" s="12" t="str">
         <f>IF(_Area1_day_shift!H2="","",_Area1_day_shift!H2)</f>
         <v/>
       </c>
-      <c r="J4" s="8" t="str">
+      <c r="J4" s="12" t="str">
         <f>IF(_Area1_day_shift!I2="","",_Area1_day_shift!I2)</f>
         <v/>
       </c>
-      <c r="K4" s="8" t="str">
+      <c r="K4" s="12" t="str">
         <f>IF(_Area1_day_shift!J2="","",_Area1_day_shift!J2)</f>
         <v/>
       </c>
-      <c r="L4" s="8" t="str">
+      <c r="L4" s="12" t="str">
         <f>IF(_Area1_day_shift!K2="","",_Area1_day_shift!K2)</f>
         <v/>
       </c>
-      <c r="M4" s="8" t="str">
+      <c r="M4" s="12" t="str">
         <f>IF(_Area1_day_shift!L2="","",_Area1_day_shift!L2)</f>
         <v/>
       </c>
-      <c r="N4" s="8" t="str">
+      <c r="N4" s="12" t="str">
         <f>IF(_Area1_day_shift!M2="","",_Area1_day_shift!M2)</f>
         <v/>
       </c>
-      <c r="O4" s="8" t="str">
+      <c r="O4" s="12" t="str">
         <f>IF(_Area1_day_shift!N2="","",_Area1_day_shift!N2)</f>
         <v/>
       </c>
-      <c r="P4" s="8" t="str">
+      <c r="P4" s="12" t="str">
         <f>IF(_Area1_day_shift!O2="","",_Area1_day_shift!O2)</f>
         <v/>
       </c>
@@ -879,825 +1526,828 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="6" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="8" t="s">
+    <row r="5" s="6" customFormat="1" ht="27.75" customHeight="1" spans="1:16">
+      <c r="A5" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="8" t="str">
+      <c r="B5" s="12" t="str">
         <f t="shared" ref="B5:P5" si="0">IFERROR(8-IFERROR(B4,0),"")</f>
         <v/>
       </c>
-      <c r="C5" s="8" t="str">
+      <c r="C5" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D5" s="8" t="str">
+      <c r="D5" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E5" s="8" t="str">
+      <c r="E5" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F5" s="8" t="str">
+      <c r="F5" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G5" s="8" t="str">
+      <c r="G5" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H5" s="8" t="str">
+      <c r="H5" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I5" s="8" t="str">
+      <c r="I5" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J5" s="8" t="str">
+      <c r="J5" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K5" s="8" t="str">
+      <c r="K5" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L5" s="8" t="str">
+      <c r="L5" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M5" s="8" t="str">
+      <c r="M5" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="N5" s="8" t="str">
+      <c r="N5" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O5" s="8" t="str">
+      <c r="O5" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P5" s="8" t="str">
+      <c r="P5" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="20" t="s">
+    <row r="6" ht="27.75" customHeight="1" spans="1:16">
+      <c r="A6" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="12" t="s">
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="O6" s="13"/>
-      <c r="P6" s="14"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="23"/>
     </row>
-    <row r="7" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7" t="s">
+    <row r="7" ht="27.75" customHeight="1" spans="1:16">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="K7" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="L7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="7" t="s">
+      <c r="M7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="N7" s="7" t="s">
+      <c r="N7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="O7" s="7" t="s">
+      <c r="O7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="P7" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="6" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="8" t="s">
+    <row r="8" s="6" customFormat="1" ht="27.75" customHeight="1" spans="1:16">
+      <c r="A8" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="8" t="str">
+      <c r="B8" s="12" t="str">
         <f>IF(_Area1_day_shift!A3="","",_Area1_day_shift!A3)</f>
         <v/>
       </c>
-      <c r="C8" s="8" t="str">
+      <c r="C8" s="12" t="str">
         <f>IF(_Area1_day_shift!B3="","",_Area1_day_shift!B3)</f>
         <v/>
       </c>
-      <c r="D8" s="8" t="str">
+      <c r="D8" s="12" t="str">
         <f>IF(_Area1_day_shift!C3="","",_Area1_day_shift!C3)</f>
         <v/>
       </c>
-      <c r="E8" s="8" t="str">
+      <c r="E8" s="12" t="str">
         <f>IF(_Area1_day_shift!D3="","",_Area1_day_shift!D3)</f>
         <v/>
       </c>
-      <c r="F8" s="8" t="str">
+      <c r="F8" s="12" t="str">
         <f>IF(_Area1_day_shift!E3="","",_Area1_day_shift!E3)</f>
         <v/>
       </c>
-      <c r="G8" s="8" t="str">
+      <c r="G8" s="12" t="str">
         <f>IF(_Area1_day_shift!F3="","",_Area1_day_shift!F3)</f>
         <v/>
       </c>
-      <c r="H8" s="8" t="str">
+      <c r="H8" s="12" t="str">
         <f>IF(_Area1_day_shift!G3="","",_Area1_day_shift!G3)</f>
         <v/>
       </c>
-      <c r="I8" s="8" t="str">
+      <c r="I8" s="12" t="str">
         <f>IF(_Area1_day_shift!H3="","",_Area1_day_shift!H3)</f>
         <v/>
       </c>
-      <c r="J8" s="8" t="str">
+      <c r="J8" s="12" t="str">
         <f>IF(_Area1_day_shift!I3="","",_Area1_day_shift!I3)</f>
         <v/>
       </c>
-      <c r="K8" s="8" t="str">
+      <c r="K8" s="12" t="str">
         <f>IF(_Area1_day_shift!J3="","",_Area1_day_shift!J3)</f>
         <v/>
       </c>
-      <c r="L8" s="8" t="str">
+      <c r="L8" s="12" t="str">
         <f>IF(_Area1_day_shift!K3="","",_Area1_day_shift!K3)</f>
         <v/>
       </c>
-      <c r="M8" s="8" t="str">
+      <c r="M8" s="12" t="str">
         <f>IF(_Area1_day_shift!L3="","",_Area1_day_shift!L3)</f>
         <v/>
       </c>
-      <c r="N8" s="8" t="str">
+      <c r="N8" s="12" t="str">
         <f>IF(_Area1_day_shift!M3="","",_Area1_day_shift!M3)</f>
         <v/>
       </c>
-      <c r="O8" s="8" t="str">
+      <c r="O8" s="12" t="str">
         <f>IF(_Area1_day_shift!N3="","",_Area1_day_shift!N3)</f>
         <v/>
       </c>
-      <c r="P8" s="8" t="str">
+      <c r="P8" s="12" t="str">
         <f>IF(_Area1_day_shift!O3="","",_Area1_day_shift!O3)</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:18" s="6" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="8" t="s">
+    <row r="9" s="6" customFormat="1" ht="27.75" customHeight="1" spans="1:16">
+      <c r="A9" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="8" t="str">
+      <c r="B9" s="12" t="str">
         <f t="shared" ref="B9:P9" si="1">IFERROR(8-IFERROR(B8,0),"")</f>
         <v/>
       </c>
-      <c r="C9" s="8" t="str">
+      <c r="C9" s="12" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D9" s="8" t="str">
+      <c r="D9" s="12" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="E9" s="8" t="str">
+      <c r="E9" s="12" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F9" s="8" t="str">
+      <c r="F9" s="12" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G9" s="8" t="str">
+      <c r="G9" s="12" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H9" s="8" t="str">
+      <c r="H9" s="12" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I9" s="8" t="str">
+      <c r="I9" s="12" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J9" s="8" t="str">
+      <c r="J9" s="12" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K9" s="8" t="str">
+      <c r="K9" s="12" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L9" s="8" t="str">
+      <c r="L9" s="12" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M9" s="8" t="str">
+      <c r="M9" s="12" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N9" s="8" t="str">
+      <c r="N9" s="12" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O9" s="8" t="str">
+      <c r="O9" s="12" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="P9" s="8" t="str">
+      <c r="P9" s="12" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="12" t="s">
+    <row r="10" ht="27.75" customHeight="1" spans="1:16">
+      <c r="A10" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
       <c r="M10" s="14"/>
-      <c r="N10" s="12" t="s">
+      <c r="N10" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="O10" s="13"/>
-      <c r="P10" s="14"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="23"/>
     </row>
-    <row r="11" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7" t="s">
+    <row r="11" ht="27.75" customHeight="1" spans="1:16">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="I11" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J11" s="7" t="s">
+      <c r="J11" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="K11" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="L11" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="M11" s="7" t="s">
+      <c r="M11" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="N11" s="7" t="s">
+      <c r="N11" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="O11" s="7" t="s">
+      <c r="O11" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="P11" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:18" s="6" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="8" t="s">
+    <row r="12" s="6" customFormat="1" ht="27.75" customHeight="1" spans="1:16">
+      <c r="A12" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="8" t="str">
+      <c r="B12" s="12" t="str">
         <f>IF(_Area1_day_shift!A4="","",_Area1_day_shift!A4)</f>
         <v/>
       </c>
-      <c r="C12" s="8" t="str">
+      <c r="C12" s="12" t="str">
         <f>IF(_Area1_day_shift!B4="","",_Area1_day_shift!B4)</f>
         <v/>
       </c>
-      <c r="D12" s="8" t="str">
+      <c r="D12" s="12" t="str">
         <f>IF(_Area1_day_shift!C4="","",_Area1_day_shift!C4)</f>
         <v/>
       </c>
-      <c r="E12" s="8" t="str">
+      <c r="E12" s="12" t="str">
         <f>IF(_Area1_day_shift!D4="","",_Area1_day_shift!D4)</f>
         <v/>
       </c>
-      <c r="F12" s="8" t="str">
+      <c r="F12" s="12" t="str">
         <f>IF(_Area1_day_shift!E4="","",_Area1_day_shift!E4)</f>
         <v/>
       </c>
-      <c r="G12" s="8" t="str">
+      <c r="G12" s="12" t="str">
         <f>IF(_Area1_day_shift!F4="","",_Area1_day_shift!F4)</f>
         <v/>
       </c>
-      <c r="H12" s="8" t="str">
+      <c r="H12" s="12" t="str">
         <f>IF(_Area1_day_shift!G4="","",_Area1_day_shift!G4)</f>
         <v/>
       </c>
-      <c r="I12" s="8" t="str">
+      <c r="I12" s="12" t="str">
         <f>IF(_Area1_day_shift!H4="","",_Area1_day_shift!H4)</f>
         <v/>
       </c>
-      <c r="J12" s="8" t="str">
+      <c r="J12" s="12" t="str">
         <f>IF(_Area1_day_shift!I4="","",_Area1_day_shift!I4)</f>
         <v/>
       </c>
-      <c r="K12" s="8" t="str">
+      <c r="K12" s="12" t="str">
         <f>IF(_Area1_day_shift!J4="","",_Area1_day_shift!J4)</f>
         <v/>
       </c>
-      <c r="L12" s="8" t="str">
+      <c r="L12" s="12" t="str">
         <f>IF(_Area1_day_shift!K4="","",_Area1_day_shift!K4)</f>
         <v/>
       </c>
-      <c r="M12" s="8" t="str">
+      <c r="M12" s="12" t="str">
         <f>IF(_Area1_day_shift!L4="","",_Area1_day_shift!L4)</f>
         <v/>
       </c>
-      <c r="N12" s="8" t="str">
+      <c r="N12" s="12" t="str">
         <f>IF(_Area1_day_shift!M4="","",_Area1_day_shift!M4)</f>
         <v/>
       </c>
-      <c r="O12" s="8" t="str">
+      <c r="O12" s="12" t="str">
         <f>IF(_Area1_day_shift!N4="","",_Area1_day_shift!N4)</f>
         <v/>
       </c>
-      <c r="P12" s="8" t="str">
+      <c r="P12" s="12" t="str">
         <f>IF(_Area1_day_shift!O4="","",_Area1_day_shift!O4)</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:18" s="6" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="8" t="s">
+    <row r="13" s="6" customFormat="1" ht="27.75" customHeight="1" spans="1:16">
+      <c r="A13" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="8" t="str">
+      <c r="B13" s="12" t="str">
         <f t="shared" ref="B13:P13" si="2">IFERROR(8-IFERROR(B12,0),"")</f>
         <v/>
       </c>
-      <c r="C13" s="8" t="str">
+      <c r="C13" s="12" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D13" s="8" t="str">
+      <c r="D13" s="12" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="E13" s="8" t="str">
+      <c r="E13" s="12" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F13" s="8" t="str">
+      <c r="F13" s="12" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G13" s="8" t="str">
+      <c r="G13" s="12" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H13" s="8" t="str">
+      <c r="H13" s="12" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I13" s="8" t="str">
+      <c r="I13" s="12" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J13" s="8" t="str">
+      <c r="J13" s="12" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K13" s="8" t="str">
+      <c r="K13" s="12" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L13" s="8" t="str">
+      <c r="L13" s="12" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M13" s="8" t="str">
+      <c r="M13" s="12" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N13" s="8" t="str">
+      <c r="N13" s="12" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="O13" s="8" t="str">
+      <c r="O13" s="12" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P13" s="8" t="str">
+      <c r="P13" s="12" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="9" t="s">
+    <row r="14" ht="27.75" customHeight="1" spans="1:16">
+      <c r="A14" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="16">
         <f>SUM(B4,B8,B12)</f>
         <v>0</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="11">
         <f t="shared" ref="C14:P14" si="3">SUM(C4,C8,C12)</f>
         <v>0</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I14" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J14" s="8">
+      <c r="J14" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K14" s="8">
+      <c r="K14" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L14" s="8">
+      <c r="L14" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M14" s="8">
+      <c r="M14" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N14" s="8">
+      <c r="N14" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O14" s="8">
+      <c r="O14" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P14" s="8">
+      <c r="P14" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="9" t="s">
+    <row r="15" ht="27.75" customHeight="1" spans="1:16">
+      <c r="A15" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="11">
         <f>SUM(B5,B9,B13)</f>
         <v>0</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="11">
         <f t="shared" ref="C15:P15" si="4">SUM(C5,C9,C13)</f>
         <v>0</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I15" s="8">
+      <c r="I15" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J15" s="8">
+      <c r="J15" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K15" s="8">
+      <c r="K15" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L15" s="8">
+      <c r="L15" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M15" s="8">
+      <c r="M15" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N15" s="8">
+      <c r="N15" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O15" s="8">
+      <c r="O15" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P15" s="8">
+      <c r="P15" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="12" t="s">
+    <row r="16" ht="27.75" customHeight="1" spans="1:16">
+      <c r="A16" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="14"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="24"/>
     </row>
-    <row r="17" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7" t="s">
+    <row r="17" ht="27.75" customHeight="1" spans="1:16">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="H17" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I17" s="7" t="s">
+      <c r="I17" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J17" s="7" t="s">
+      <c r="J17" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="K17" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="L17" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="M17" s="7" t="s">
+      <c r="M17" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="N17" s="7" t="s">
+      <c r="N17" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="O17" s="7" t="s">
+      <c r="O17" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="P17" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:16" s="6" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="8" t="s">
+    <row r="18" s="6" customFormat="1" ht="27.75" customHeight="1" spans="1:16">
+      <c r="A18" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="8" t="str">
+      <c r="B18" s="12" t="str">
         <f>IF(_Area2_month_day!A2="","",_Area2_month_day!A2)</f>
         <v/>
       </c>
-      <c r="C18" s="8" t="str">
+      <c r="C18" s="12" t="str">
         <f>IF(_Area2_month_day!B2="","",_Area2_month_day!B2)</f>
         <v/>
       </c>
-      <c r="D18" s="8" t="str">
+      <c r="D18" s="12" t="str">
         <f>IF(_Area2_month_day!C2="","",_Area2_month_day!C2)</f>
         <v/>
       </c>
-      <c r="E18" s="8" t="str">
+      <c r="E18" s="12" t="str">
         <f>IF(_Area2_month_day!D2="","",_Area2_month_day!D2)</f>
         <v/>
       </c>
-      <c r="F18" s="8" t="str">
+      <c r="F18" s="12" t="str">
         <f>IF(_Area2_month_day!E2="","",_Area2_month_day!E2)</f>
         <v/>
       </c>
-      <c r="G18" s="8" t="str">
+      <c r="G18" s="12" t="str">
         <f>IF(_Area2_month_day!F2="","",_Area2_month_day!F2)</f>
         <v/>
       </c>
-      <c r="H18" s="8" t="str">
+      <c r="H18" s="12" t="str">
         <f>IF(_Area2_month_day!G2="","",_Area2_month_day!G2)</f>
         <v/>
       </c>
-      <c r="I18" s="8" t="str">
+      <c r="I18" s="12" t="str">
         <f>IF(_Area2_month_day!H2="","",_Area2_month_day!H2)</f>
         <v/>
       </c>
-      <c r="J18" s="8" t="str">
+      <c r="J18" s="12" t="str">
         <f>IF(_Area2_month_day!I2="","",_Area2_month_day!I2)</f>
         <v/>
       </c>
-      <c r="K18" s="8" t="str">
+      <c r="K18" s="12" t="str">
         <f>IF(_Area2_month_day!J2="","",_Area2_month_day!J2)</f>
         <v/>
       </c>
-      <c r="L18" s="8" t="str">
+      <c r="L18" s="12" t="str">
         <f>IF(_Area2_month_day!K2="","",_Area2_month_day!K2)</f>
         <v/>
       </c>
-      <c r="M18" s="8" t="str">
+      <c r="M18" s="12" t="str">
         <f>IF(_Area2_month_day!L2="","",_Area2_month_day!L2)</f>
         <v/>
       </c>
-      <c r="N18" s="8" t="str">
+      <c r="N18" s="12" t="str">
         <f>IF(_Area2_month_day!M2="","",_Area2_month_day!M2)</f>
         <v/>
       </c>
-      <c r="O18" s="8" t="str">
+      <c r="O18" s="12" t="str">
         <f>IF(_Area2_month_day!N2="","",_Area2_month_day!N2)</f>
         <v/>
       </c>
-      <c r="P18" s="8" t="str">
+      <c r="P18" s="12" t="str">
         <f>IF(_Area2_month_day!O2="","",_Area2_month_day!O2)</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:16" s="6" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="8" t="s">
+    <row r="19" s="6" customFormat="1" ht="27.75" customHeight="1" spans="1:16">
+      <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="8" t="str">
+      <c r="B19" s="12" t="str">
         <f>IF(_Area3_month_day!A2="","",_Area3_month_day!A2)</f>
         <v/>
       </c>
-      <c r="C19" s="8" t="str">
+      <c r="C19" s="12" t="str">
         <f>IF(_Area3_month_day!B2="","",_Area3_month_day!B2)</f>
         <v/>
       </c>
-      <c r="D19" s="8" t="str">
+      <c r="D19" s="12" t="str">
         <f>IF(_Area3_month_day!C2="","",_Area3_month_day!C2)</f>
         <v/>
       </c>
-      <c r="E19" s="8" t="str">
+      <c r="E19" s="12" t="str">
         <f>IF(_Area3_month_day!D2="","",_Area3_month_day!D2)</f>
         <v/>
       </c>
-      <c r="F19" s="8" t="str">
+      <c r="F19" s="12" t="str">
         <f>IF(_Area3_month_day!E2="","",_Area3_month_day!E2)</f>
         <v/>
       </c>
-      <c r="G19" s="8" t="str">
+      <c r="G19" s="12" t="str">
         <f>IF(_Area3_month_day!F2="","",_Area3_month_day!F2)</f>
         <v/>
       </c>
-      <c r="H19" s="8" t="str">
+      <c r="H19" s="12" t="str">
         <f>IF(_Area3_month_day!G2="","",_Area3_month_day!G2)</f>
         <v/>
       </c>
-      <c r="I19" s="8" t="str">
+      <c r="I19" s="12" t="str">
         <f>IF(_Area3_month_day!H2="","",_Area3_month_day!H2)</f>
         <v/>
       </c>
-      <c r="J19" s="8" t="str">
+      <c r="J19" s="12" t="str">
         <f>IF(_Area3_month_day!I2="","",_Area3_month_day!I2)</f>
         <v/>
       </c>
-      <c r="K19" s="8" t="str">
+      <c r="K19" s="12" t="str">
         <f>IF(_Area3_month_day!J2="","",_Area3_month_day!J2)</f>
         <v/>
       </c>
-      <c r="L19" s="8" t="str">
+      <c r="L19" s="12" t="str">
         <f>IF(_Area3_month_day!K2="","",_Area3_month_day!K2)</f>
         <v/>
       </c>
-      <c r="M19" s="8" t="str">
+      <c r="M19" s="12" t="str">
         <f>IF(_Area3_month_day!L2="","",_Area3_month_day!L2)</f>
         <v/>
       </c>
-      <c r="N19" s="8" t="str">
+      <c r="N19" s="12" t="str">
         <f>IF(_Area3_month_day!M2="","",_Area3_month_day!M2)</f>
         <v/>
       </c>
-      <c r="O19" s="8" t="str">
+      <c r="O19" s="12" t="str">
         <f>IF(_Area3_month_day!N2="","",_Area3_month_day!N2)</f>
         <v/>
       </c>
-      <c r="P19" s="8" t="str">
+      <c r="P19" s="12" t="str">
         <f>IF(_Area3_month_day!O2="","",_Area3_month_day!O2)</f>
         <v/>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A10:M10"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="A16:P16"/>
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A2:M2"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="A6:M6"/>
     <mergeCell ref="N6:P6"/>
+    <mergeCell ref="A10:M10"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="A16:P16"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:O1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15">
       <c r="A1" s="5" t="s">
         <v>27</v>
       </c>
@@ -1745,22 +2395,23 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15">
       <c r="A1" s="3" t="s">
         <v>27</v>
       </c>
@@ -1808,26 +2459,27 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="A1" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="6" width="36.125" customWidth="1"/>
+    <col min="1" max="6" width="36.0916666666667" customWidth="1"/>
     <col min="7" max="9" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -1875,22 +2527,23 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/excel/finished/能介/柜区风机煤压机时间统计表.xlsx
+++ b/excel/finished/能介/柜区风机煤压机时间统计表.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
-    <sheet name="Area_Runtime_Main" sheetId="1" r:id="rId1"/>
+    <sheet name="AreaRuntimeMain" sheetId="1" r:id="rId1"/>
     <sheet name="_Area1_day_shift" sheetId="2" r:id="rId2"/>
     <sheet name="_Area2_month_day" sheetId="4" r:id="rId3"/>
     <sheet name="_Area3_month_day" sheetId="3" r:id="rId4"/>
@@ -152,9 +152,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
@@ -174,14 +174,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -196,98 +188,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -302,7 +205,42 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -316,6 +254,68 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -354,25 +354,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -384,31 +498,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -420,121 +534,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -673,21 +673,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -708,6 +693,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -747,6 +747,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -755,21 +770,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -778,10 +778,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -790,133 +790,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
@@ -1352,7 +1352,7 @@
   <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:J1"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/excel/finished/能介/柜区风机煤压机时间统计表.xlsx
+++ b/excel/finished/能介/柜区风机煤压机时间统计表.xlsx
@@ -152,10 +152,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="22">
@@ -172,9 +172,22 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -188,93 +201,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -294,9 +225,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -309,8 +239,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -320,6 +282,44 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -354,13 +354,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -372,7 +438,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -384,157 +522,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -673,6 +673,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -691,8 +726,17 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -712,41 +756,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -761,15 +770,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -778,10 +778,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -790,136 +790,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -1352,7 +1352,7 @@
   <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/excel/finished/能介/柜区风机煤压机时间统计表.xlsx
+++ b/excel/finished/能介/柜区风机煤压机时间统计表.xlsx
@@ -8,10 +8,10 @@
   </bookViews>
   <sheets>
     <sheet name="AreaRuntimeMain" sheetId="1" r:id="rId1"/>
-    <sheet name="_Area1_day_shift" sheetId="2" r:id="rId2"/>
-    <sheet name="_Area2_month_day" sheetId="4" r:id="rId3"/>
-    <sheet name="_Area3_month_day" sheetId="3" r:id="rId4"/>
-    <sheet name="_metadata" sheetId="5" r:id="rId5"/>
+    <sheet name="_Area1_day_shift" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="_Area2_month_all" sheetId="4" state="hidden" r:id="rId3"/>
+    <sheet name="_Area3_month_all" sheetId="3" state="hidden" r:id="rId4"/>
+    <sheet name="_metadata" sheetId="5" state="hidden" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -152,13 +152,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,92 +167,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="13"/>
-      <name val="仿宋"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="14"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <sz val="14"/>
+      <name val="仿宋"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -270,9 +194,77 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,19 +275,41 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -313,13 +327,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -354,43 +361,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,97 +523,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -505,36 +542,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -677,33 +684,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -723,24 +713,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -752,6 +724,41 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -778,10 +785,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -790,136 +797,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -940,64 +947,64 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1351,29 +1358,40 @@
   <sheetPr/>
   <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="19.3666666666667" customWidth="1"/>
-    <col min="2" max="6" width="11.0916666666667" customWidth="1"/>
-    <col min="7" max="7" width="14.6333333333333" customWidth="1"/>
-    <col min="8" max="10" width="11.0916666666667" customWidth="1"/>
-    <col min="11" max="13" width="9.09166666666667" customWidth="1"/>
-    <col min="14" max="14" width="13" customWidth="1"/>
-    <col min="15" max="16" width="11.0916666666667" customWidth="1"/>
-    <col min="18" max="18" width="69.6333333333333" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="19.3666666666667" style="7" customWidth="1"/>
+    <col min="2" max="2" width="15.6333333333333" style="7" customWidth="1"/>
+    <col min="3" max="3" width="15.2666666666667" style="7" customWidth="1"/>
+    <col min="4" max="4" width="14.8166666666667" style="7" customWidth="1"/>
+    <col min="5" max="5" width="15.0916666666667" style="7" customWidth="1"/>
+    <col min="6" max="6" width="14.725" style="7" customWidth="1"/>
+    <col min="7" max="7" width="15.0916666666667" style="7" customWidth="1"/>
+    <col min="8" max="8" width="14.1833333333333" style="7" customWidth="1"/>
+    <col min="9" max="9" width="14.45" style="7" customWidth="1"/>
+    <col min="10" max="10" width="15.3666666666667" style="7" customWidth="1"/>
+    <col min="11" max="11" width="12.2666666666667" style="7" customWidth="1"/>
+    <col min="12" max="12" width="12.45" style="7" customWidth="1"/>
+    <col min="13" max="13" width="12.8166666666667" style="7" customWidth="1"/>
+    <col min="14" max="14" width="15.2666666666667" style="7" customWidth="1"/>
+    <col min="15" max="15" width="15.3666666666667" style="7" customWidth="1"/>
+    <col min="16" max="16" width="16.1833333333333" style="7" customWidth="1"/>
+    <col min="17" max="17" width="9" style="7"/>
+    <col min="18" max="18" width="69.6333333333333" style="7" hidden="1" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" ht="45" customHeight="1" spans="7:18">
-      <c r="G1" s="7" t="str">
+      <c r="G1" s="8" t="str">
         <f>IF(_metadata!B2="","",_metadata!B2)</f>
         <v/>
       </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
       <c r="J1" s="19"/>
       <c r="N1" s="20"/>
       <c r="O1" s="20"/>
@@ -1383,142 +1401,142 @@
       </c>
     </row>
     <row r="2" ht="27.75" customHeight="1" spans="1:18">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
       <c r="N2" s="21" t="s">
         <v>2</v>
       </c>
       <c r="O2" s="22"/>
       <c r="P2" s="23"/>
-      <c r="R2" t="s">
+      <c r="R2" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" ht="27.75" customHeight="1" spans="1:18">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11" t="s">
+      <c r="A3" s="12"/>
+      <c r="B3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="M3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="N3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="O3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="P3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="R3" t="s">
+      <c r="R3" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" s="6" customFormat="1" ht="27.75" customHeight="1" spans="1:18">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="12" t="str">
+      <c r="B4" s="13" t="str">
         <f>IF(_Area1_day_shift!A2="","",_Area1_day_shift!A2)</f>
         <v/>
       </c>
-      <c r="C4" s="12" t="str">
+      <c r="C4" s="13" t="str">
         <f>IF(_Area1_day_shift!B2="","",_Area1_day_shift!B2)</f>
         <v/>
       </c>
-      <c r="D4" s="12" t="str">
+      <c r="D4" s="13" t="str">
         <f>IF(_Area1_day_shift!C2="","",_Area1_day_shift!C2)</f>
         <v/>
       </c>
-      <c r="E4" s="12" t="str">
+      <c r="E4" s="13" t="str">
         <f>IF(_Area1_day_shift!D2="","",_Area1_day_shift!D2)</f>
         <v/>
       </c>
-      <c r="F4" s="12" t="str">
+      <c r="F4" s="13" t="str">
         <f>IF(_Area1_day_shift!E2="","",_Area1_day_shift!E2)</f>
         <v/>
       </c>
-      <c r="G4" s="12" t="str">
+      <c r="G4" s="13" t="str">
         <f>IF(_Area1_day_shift!F2="","",_Area1_day_shift!F2)</f>
         <v/>
       </c>
-      <c r="H4" s="12" t="str">
+      <c r="H4" s="13" t="str">
         <f>IF(_Area1_day_shift!G2="","",_Area1_day_shift!G2)</f>
         <v/>
       </c>
-      <c r="I4" s="12" t="str">
+      <c r="I4" s="13" t="str">
         <f>IF(_Area1_day_shift!H2="","",_Area1_day_shift!H2)</f>
         <v/>
       </c>
-      <c r="J4" s="12" t="str">
+      <c r="J4" s="13" t="str">
         <f>IF(_Area1_day_shift!I2="","",_Area1_day_shift!I2)</f>
         <v/>
       </c>
-      <c r="K4" s="12" t="str">
+      <c r="K4" s="13" t="str">
         <f>IF(_Area1_day_shift!J2="","",_Area1_day_shift!J2)</f>
         <v/>
       </c>
-      <c r="L4" s="12" t="str">
+      <c r="L4" s="13" t="str">
         <f>IF(_Area1_day_shift!K2="","",_Area1_day_shift!K2)</f>
         <v/>
       </c>
-      <c r="M4" s="12" t="str">
+      <c r="M4" s="13" t="str">
         <f>IF(_Area1_day_shift!L2="","",_Area1_day_shift!L2)</f>
         <v/>
       </c>
-      <c r="N4" s="12" t="str">
+      <c r="N4" s="13" t="str">
         <f>IF(_Area1_day_shift!M2="","",_Area1_day_shift!M2)</f>
         <v/>
       </c>
-      <c r="O4" s="12" t="str">
+      <c r="O4" s="13" t="str">
         <f>IF(_Area1_day_shift!N2="","",_Area1_day_shift!N2)</f>
         <v/>
       </c>
-      <c r="P4" s="12" t="str">
+      <c r="P4" s="13" t="str">
         <f>IF(_Area1_day_shift!O2="","",_Area1_day_shift!O2)</f>
         <v/>
       </c>
@@ -1527,86 +1545,86 @@
       </c>
     </row>
     <row r="5" s="6" customFormat="1" ht="27.75" customHeight="1" spans="1:16">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="12" t="str">
+      <c r="B5" s="13" t="str">
         <f t="shared" ref="B5:P5" si="0">IFERROR(8-IFERROR(B4,0),"")</f>
         <v/>
       </c>
-      <c r="C5" s="12" t="str">
+      <c r="C5" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D5" s="12" t="str">
+      <c r="D5" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E5" s="12" t="str">
+      <c r="E5" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F5" s="12" t="str">
+      <c r="F5" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G5" s="12" t="str">
+      <c r="G5" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H5" s="12" t="str">
+      <c r="H5" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I5" s="12" t="str">
+      <c r="I5" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J5" s="12" t="str">
+      <c r="J5" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K5" s="12" t="str">
+      <c r="K5" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L5" s="12" t="str">
+      <c r="L5" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M5" s="12" t="str">
+      <c r="M5" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="N5" s="12" t="str">
+      <c r="N5" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O5" s="12" t="str">
+      <c r="O5" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P5" s="12" t="str">
+      <c r="P5" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="6" ht="27.75" customHeight="1" spans="1:16">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
       <c r="N6" s="21" t="s">
         <v>21</v>
       </c>
@@ -1614,199 +1632,199 @@
       <c r="P6" s="23"/>
     </row>
     <row r="7" ht="27.75" customHeight="1" spans="1:16">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11" t="s">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="I7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="J7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="K7" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="L7" s="11" t="s">
+      <c r="L7" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="11" t="s">
+      <c r="M7" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="N7" s="11" t="s">
+      <c r="N7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="O7" s="11" t="s">
+      <c r="O7" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="P7" s="11" t="s">
+      <c r="P7" s="12" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" s="6" customFormat="1" ht="27.75" customHeight="1" spans="1:16">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="12" t="str">
+      <c r="B8" s="13" t="str">
         <f>IF(_Area1_day_shift!A3="","",_Area1_day_shift!A3)</f>
         <v/>
       </c>
-      <c r="C8" s="12" t="str">
+      <c r="C8" s="13" t="str">
         <f>IF(_Area1_day_shift!B3="","",_Area1_day_shift!B3)</f>
         <v/>
       </c>
-      <c r="D8" s="12" t="str">
+      <c r="D8" s="13" t="str">
         <f>IF(_Area1_day_shift!C3="","",_Area1_day_shift!C3)</f>
         <v/>
       </c>
-      <c r="E8" s="12" t="str">
+      <c r="E8" s="13" t="str">
         <f>IF(_Area1_day_shift!D3="","",_Area1_day_shift!D3)</f>
         <v/>
       </c>
-      <c r="F8" s="12" t="str">
+      <c r="F8" s="13" t="str">
         <f>IF(_Area1_day_shift!E3="","",_Area1_day_shift!E3)</f>
         <v/>
       </c>
-      <c r="G8" s="12" t="str">
+      <c r="G8" s="13" t="str">
         <f>IF(_Area1_day_shift!F3="","",_Area1_day_shift!F3)</f>
         <v/>
       </c>
-      <c r="H8" s="12" t="str">
+      <c r="H8" s="13" t="str">
         <f>IF(_Area1_day_shift!G3="","",_Area1_day_shift!G3)</f>
         <v/>
       </c>
-      <c r="I8" s="12" t="str">
+      <c r="I8" s="13" t="str">
         <f>IF(_Area1_day_shift!H3="","",_Area1_day_shift!H3)</f>
         <v/>
       </c>
-      <c r="J8" s="12" t="str">
+      <c r="J8" s="13" t="str">
         <f>IF(_Area1_day_shift!I3="","",_Area1_day_shift!I3)</f>
         <v/>
       </c>
-      <c r="K8" s="12" t="str">
+      <c r="K8" s="13" t="str">
         <f>IF(_Area1_day_shift!J3="","",_Area1_day_shift!J3)</f>
         <v/>
       </c>
-      <c r="L8" s="12" t="str">
+      <c r="L8" s="13" t="str">
         <f>IF(_Area1_day_shift!K3="","",_Area1_day_shift!K3)</f>
         <v/>
       </c>
-      <c r="M8" s="12" t="str">
+      <c r="M8" s="13" t="str">
         <f>IF(_Area1_day_shift!L3="","",_Area1_day_shift!L3)</f>
         <v/>
       </c>
-      <c r="N8" s="12" t="str">
+      <c r="N8" s="13" t="str">
         <f>IF(_Area1_day_shift!M3="","",_Area1_day_shift!M3)</f>
         <v/>
       </c>
-      <c r="O8" s="12" t="str">
+      <c r="O8" s="13" t="str">
         <f>IF(_Area1_day_shift!N3="","",_Area1_day_shift!N3)</f>
         <v/>
       </c>
-      <c r="P8" s="12" t="str">
+      <c r="P8" s="13" t="str">
         <f>IF(_Area1_day_shift!O3="","",_Area1_day_shift!O3)</f>
         <v/>
       </c>
     </row>
     <row r="9" s="6" customFormat="1" ht="27.75" customHeight="1" spans="1:16">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="12" t="str">
+      <c r="B9" s="13" t="str">
         <f t="shared" ref="B9:P9" si="1">IFERROR(8-IFERROR(B8,0),"")</f>
         <v/>
       </c>
-      <c r="C9" s="12" t="str">
+      <c r="C9" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D9" s="12" t="str">
+      <c r="D9" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="E9" s="12" t="str">
+      <c r="E9" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F9" s="12" t="str">
+      <c r="F9" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G9" s="12" t="str">
+      <c r="G9" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H9" s="12" t="str">
+      <c r="H9" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I9" s="12" t="str">
+      <c r="I9" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J9" s="12" t="str">
+      <c r="J9" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K9" s="12" t="str">
+      <c r="K9" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L9" s="12" t="str">
+      <c r="L9" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M9" s="12" t="str">
+      <c r="M9" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N9" s="12" t="str">
+      <c r="N9" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O9" s="12" t="str">
+      <c r="O9" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="P9" s="12" t="str">
+      <c r="P9" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="10" ht="27.75" customHeight="1" spans="1:16">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
       <c r="N10" s="21" t="s">
         <v>23</v>
       </c>
@@ -1814,309 +1832,309 @@
       <c r="P10" s="23"/>
     </row>
     <row r="11" ht="27.75" customHeight="1" spans="1:16">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11" t="s">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="H11" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="I11" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="J11" s="11" t="s">
+      <c r="J11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="K11" s="11" t="s">
+      <c r="K11" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="L11" s="11" t="s">
+      <c r="L11" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="M11" s="11" t="s">
+      <c r="M11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="N11" s="11" t="s">
+      <c r="N11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="O11" s="11" t="s">
+      <c r="O11" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="P11" s="11" t="s">
+      <c r="P11" s="12" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="12" s="6" customFormat="1" ht="27.75" customHeight="1" spans="1:16">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="12" t="str">
+      <c r="B12" s="13" t="str">
         <f>IF(_Area1_day_shift!A4="","",_Area1_day_shift!A4)</f>
         <v/>
       </c>
-      <c r="C12" s="12" t="str">
+      <c r="C12" s="13" t="str">
         <f>IF(_Area1_day_shift!B4="","",_Area1_day_shift!B4)</f>
         <v/>
       </c>
-      <c r="D12" s="12" t="str">
+      <c r="D12" s="13" t="str">
         <f>IF(_Area1_day_shift!C4="","",_Area1_day_shift!C4)</f>
         <v/>
       </c>
-      <c r="E12" s="12" t="str">
+      <c r="E12" s="13" t="str">
         <f>IF(_Area1_day_shift!D4="","",_Area1_day_shift!D4)</f>
         <v/>
       </c>
-      <c r="F12" s="12" t="str">
+      <c r="F12" s="13" t="str">
         <f>IF(_Area1_day_shift!E4="","",_Area1_day_shift!E4)</f>
         <v/>
       </c>
-      <c r="G12" s="12" t="str">
+      <c r="G12" s="13" t="str">
         <f>IF(_Area1_day_shift!F4="","",_Area1_day_shift!F4)</f>
         <v/>
       </c>
-      <c r="H12" s="12" t="str">
+      <c r="H12" s="13" t="str">
         <f>IF(_Area1_day_shift!G4="","",_Area1_day_shift!G4)</f>
         <v/>
       </c>
-      <c r="I12" s="12" t="str">
+      <c r="I12" s="13" t="str">
         <f>IF(_Area1_day_shift!H4="","",_Area1_day_shift!H4)</f>
         <v/>
       </c>
-      <c r="J12" s="12" t="str">
+      <c r="J12" s="13" t="str">
         <f>IF(_Area1_day_shift!I4="","",_Area1_day_shift!I4)</f>
         <v/>
       </c>
-      <c r="K12" s="12" t="str">
+      <c r="K12" s="13" t="str">
         <f>IF(_Area1_day_shift!J4="","",_Area1_day_shift!J4)</f>
         <v/>
       </c>
-      <c r="L12" s="12" t="str">
+      <c r="L12" s="13" t="str">
         <f>IF(_Area1_day_shift!K4="","",_Area1_day_shift!K4)</f>
         <v/>
       </c>
-      <c r="M12" s="12" t="str">
+      <c r="M12" s="13" t="str">
         <f>IF(_Area1_day_shift!L4="","",_Area1_day_shift!L4)</f>
         <v/>
       </c>
-      <c r="N12" s="12" t="str">
+      <c r="N12" s="13" t="str">
         <f>IF(_Area1_day_shift!M4="","",_Area1_day_shift!M4)</f>
         <v/>
       </c>
-      <c r="O12" s="12" t="str">
+      <c r="O12" s="13" t="str">
         <f>IF(_Area1_day_shift!N4="","",_Area1_day_shift!N4)</f>
         <v/>
       </c>
-      <c r="P12" s="12" t="str">
+      <c r="P12" s="13" t="str">
         <f>IF(_Area1_day_shift!O4="","",_Area1_day_shift!O4)</f>
         <v/>
       </c>
     </row>
     <row r="13" s="6" customFormat="1" ht="27.75" customHeight="1" spans="1:16">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="12" t="str">
+      <c r="B13" s="13" t="str">
         <f t="shared" ref="B13:P13" si="2">IFERROR(8-IFERROR(B12,0),"")</f>
         <v/>
       </c>
-      <c r="C13" s="12" t="str">
+      <c r="C13" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D13" s="12" t="str">
+      <c r="D13" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="E13" s="12" t="str">
+      <c r="E13" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F13" s="12" t="str">
+      <c r="F13" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G13" s="12" t="str">
+      <c r="G13" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H13" s="12" t="str">
+      <c r="H13" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I13" s="12" t="str">
+      <c r="I13" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J13" s="12" t="str">
+      <c r="J13" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K13" s="12" t="str">
+      <c r="K13" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L13" s="12" t="str">
+      <c r="L13" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M13" s="12" t="str">
+      <c r="M13" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N13" s="12" t="str">
+      <c r="N13" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="O13" s="12" t="str">
+      <c r="O13" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P13" s="12" t="str">
+      <c r="P13" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="14" ht="27.75" customHeight="1" spans="1:16">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="12" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="16">
         <f>SUM(B4,B8,B12)</f>
         <v>0</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="12">
         <f t="shared" ref="C14:P14" si="3">SUM(C4,C8,C12)</f>
         <v>0</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H14" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I14" s="11">
+      <c r="I14" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J14" s="11">
+      <c r="J14" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K14" s="11">
+      <c r="K14" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L14" s="11">
+      <c r="L14" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M14" s="11">
+      <c r="M14" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N14" s="11">
+      <c r="N14" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O14" s="11">
+      <c r="O14" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P14" s="11">
+      <c r="P14" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" ht="27.75" customHeight="1" spans="1:16">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="12">
         <f>SUM(B5,B9,B13)</f>
         <v>0</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="12">
         <f t="shared" ref="C15:P15" si="4">SUM(C5,C9,C13)</f>
         <v>0</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H15" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I15" s="11">
+      <c r="I15" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J15" s="11">
+      <c r="J15" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K15" s="11">
+      <c r="K15" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L15" s="11">
+      <c r="L15" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M15" s="11">
+      <c r="M15" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N15" s="11">
+      <c r="N15" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O15" s="11">
+      <c r="O15" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P15" s="11">
+      <c r="P15" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -2142,180 +2160,180 @@
       <c r="P16" s="24"/>
     </row>
     <row r="17" ht="27.75" customHeight="1" spans="1:16">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11" t="s">
+      <c r="A17" s="12"/>
+      <c r="B17" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F17" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G17" s="11" t="s">
+      <c r="G17" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H17" s="11" t="s">
+      <c r="H17" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="I17" s="11" t="s">
+      <c r="I17" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="J17" s="11" t="s">
+      <c r="J17" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="K17" s="11" t="s">
+      <c r="K17" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="L17" s="11" t="s">
+      <c r="L17" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="M17" s="11" t="s">
+      <c r="M17" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="N17" s="11" t="s">
+      <c r="N17" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="O17" s="11" t="s">
+      <c r="O17" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="P17" s="11" t="s">
+      <c r="P17" s="12" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="18" s="6" customFormat="1" ht="27.75" customHeight="1" spans="1:16">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="12" t="str">
-        <f>IF(_Area2_month_day!A2="","",_Area2_month_day!A2)</f>
-        <v/>
-      </c>
-      <c r="C18" s="12" t="str">
-        <f>IF(_Area2_month_day!B2="","",_Area2_month_day!B2)</f>
-        <v/>
-      </c>
-      <c r="D18" s="12" t="str">
-        <f>IF(_Area2_month_day!C2="","",_Area2_month_day!C2)</f>
-        <v/>
-      </c>
-      <c r="E18" s="12" t="str">
-        <f>IF(_Area2_month_day!D2="","",_Area2_month_day!D2)</f>
-        <v/>
-      </c>
-      <c r="F18" s="12" t="str">
-        <f>IF(_Area2_month_day!E2="","",_Area2_month_day!E2)</f>
-        <v/>
-      </c>
-      <c r="G18" s="12" t="str">
-        <f>IF(_Area2_month_day!F2="","",_Area2_month_day!F2)</f>
-        <v/>
-      </c>
-      <c r="H18" s="12" t="str">
-        <f>IF(_Area2_month_day!G2="","",_Area2_month_day!G2)</f>
-        <v/>
-      </c>
-      <c r="I18" s="12" t="str">
-        <f>IF(_Area2_month_day!H2="","",_Area2_month_day!H2)</f>
-        <v/>
-      </c>
-      <c r="J18" s="12" t="str">
-        <f>IF(_Area2_month_day!I2="","",_Area2_month_day!I2)</f>
-        <v/>
-      </c>
-      <c r="K18" s="12" t="str">
-        <f>IF(_Area2_month_day!J2="","",_Area2_month_day!J2)</f>
-        <v/>
-      </c>
-      <c r="L18" s="12" t="str">
-        <f>IF(_Area2_month_day!K2="","",_Area2_month_day!K2)</f>
-        <v/>
-      </c>
-      <c r="M18" s="12" t="str">
-        <f>IF(_Area2_month_day!L2="","",_Area2_month_day!L2)</f>
-        <v/>
-      </c>
-      <c r="N18" s="12" t="str">
-        <f>IF(_Area2_month_day!M2="","",_Area2_month_day!M2)</f>
-        <v/>
-      </c>
-      <c r="O18" s="12" t="str">
-        <f>IF(_Area2_month_day!N2="","",_Area2_month_day!N2)</f>
-        <v/>
-      </c>
-      <c r="P18" s="12" t="str">
-        <f>IF(_Area2_month_day!O2="","",_Area2_month_day!O2)</f>
+      <c r="B18" s="13" t="str">
+        <f>IF(_Area2_month_all!A2="","",_Area2_month_all!A2)</f>
+        <v/>
+      </c>
+      <c r="C18" s="13" t="str">
+        <f>IF(_Area2_month_all!B2="","",_Area2_month_all!B2)</f>
+        <v/>
+      </c>
+      <c r="D18" s="13" t="str">
+        <f>IF(_Area2_month_all!C2="","",_Area2_month_all!C2)</f>
+        <v/>
+      </c>
+      <c r="E18" s="13" t="str">
+        <f>IF(_Area2_month_all!D2="","",_Area2_month_all!D2)</f>
+        <v/>
+      </c>
+      <c r="F18" s="13" t="str">
+        <f>IF(_Area2_month_all!E2="","",_Area2_month_all!E2)</f>
+        <v/>
+      </c>
+      <c r="G18" s="13" t="str">
+        <f>IF(_Area2_month_all!F2="","",_Area2_month_all!F2)</f>
+        <v/>
+      </c>
+      <c r="H18" s="13" t="str">
+        <f>IF(_Area2_month_all!G2="","",_Area2_month_all!G2)</f>
+        <v/>
+      </c>
+      <c r="I18" s="13" t="str">
+        <f>IF(_Area2_month_all!H2="","",_Area2_month_all!H2)</f>
+        <v/>
+      </c>
+      <c r="J18" s="13" t="str">
+        <f>IF(_Area2_month_all!I2="","",_Area2_month_all!I2)</f>
+        <v/>
+      </c>
+      <c r="K18" s="13" t="str">
+        <f>IF(_Area2_month_all!J2="","",_Area2_month_all!J2)</f>
+        <v/>
+      </c>
+      <c r="L18" s="13" t="str">
+        <f>IF(_Area2_month_all!K2="","",_Area2_month_all!K2)</f>
+        <v/>
+      </c>
+      <c r="M18" s="13" t="str">
+        <f>IF(_Area2_month_all!L2="","",_Area2_month_all!L2)</f>
+        <v/>
+      </c>
+      <c r="N18" s="13" t="str">
+        <f>IF(_Area2_month_all!M2="","",_Area2_month_all!M2)</f>
+        <v/>
+      </c>
+      <c r="O18" s="13" t="str">
+        <f>IF(_Area2_month_all!N2="","",_Area2_month_all!N2)</f>
+        <v/>
+      </c>
+      <c r="P18" s="13" t="str">
+        <f>IF(_Area2_month_all!O2="","",_Area2_month_all!O2)</f>
         <v/>
       </c>
     </row>
     <row r="19" s="6" customFormat="1" ht="27.75" customHeight="1" spans="1:16">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="12" t="str">
-        <f>IF(_Area3_month_day!A2="","",_Area3_month_day!A2)</f>
-        <v/>
-      </c>
-      <c r="C19" s="12" t="str">
-        <f>IF(_Area3_month_day!B2="","",_Area3_month_day!B2)</f>
-        <v/>
-      </c>
-      <c r="D19" s="12" t="str">
-        <f>IF(_Area3_month_day!C2="","",_Area3_month_day!C2)</f>
-        <v/>
-      </c>
-      <c r="E19" s="12" t="str">
-        <f>IF(_Area3_month_day!D2="","",_Area3_month_day!D2)</f>
-        <v/>
-      </c>
-      <c r="F19" s="12" t="str">
-        <f>IF(_Area3_month_day!E2="","",_Area3_month_day!E2)</f>
-        <v/>
-      </c>
-      <c r="G19" s="12" t="str">
-        <f>IF(_Area3_month_day!F2="","",_Area3_month_day!F2)</f>
-        <v/>
-      </c>
-      <c r="H19" s="12" t="str">
-        <f>IF(_Area3_month_day!G2="","",_Area3_month_day!G2)</f>
-        <v/>
-      </c>
-      <c r="I19" s="12" t="str">
-        <f>IF(_Area3_month_day!H2="","",_Area3_month_day!H2)</f>
-        <v/>
-      </c>
-      <c r="J19" s="12" t="str">
-        <f>IF(_Area3_month_day!I2="","",_Area3_month_day!I2)</f>
-        <v/>
-      </c>
-      <c r="K19" s="12" t="str">
-        <f>IF(_Area3_month_day!J2="","",_Area3_month_day!J2)</f>
-        <v/>
-      </c>
-      <c r="L19" s="12" t="str">
-        <f>IF(_Area3_month_day!K2="","",_Area3_month_day!K2)</f>
-        <v/>
-      </c>
-      <c r="M19" s="12" t="str">
-        <f>IF(_Area3_month_day!L2="","",_Area3_month_day!L2)</f>
-        <v/>
-      </c>
-      <c r="N19" s="12" t="str">
-        <f>IF(_Area3_month_day!M2="","",_Area3_month_day!M2)</f>
-        <v/>
-      </c>
-      <c r="O19" s="12" t="str">
-        <f>IF(_Area3_month_day!N2="","",_Area3_month_day!N2)</f>
-        <v/>
-      </c>
-      <c r="P19" s="12" t="str">
-        <f>IF(_Area3_month_day!O2="","",_Area3_month_day!O2)</f>
+      <c r="B19" s="13" t="str">
+        <f>IF(_Area3_month_all!A2="","",_Area3_month_all!A2)</f>
+        <v/>
+      </c>
+      <c r="C19" s="13" t="str">
+        <f>IF(_Area3_month_all!B2="","",_Area3_month_all!B2)</f>
+        <v/>
+      </c>
+      <c r="D19" s="13" t="str">
+        <f>IF(_Area3_month_all!C2="","",_Area3_month_all!C2)</f>
+        <v/>
+      </c>
+      <c r="E19" s="13" t="str">
+        <f>IF(_Area3_month_all!D2="","",_Area3_month_all!D2)</f>
+        <v/>
+      </c>
+      <c r="F19" s="13" t="str">
+        <f>IF(_Area3_month_all!E2="","",_Area3_month_all!E2)</f>
+        <v/>
+      </c>
+      <c r="G19" s="13" t="str">
+        <f>IF(_Area3_month_all!F2="","",_Area3_month_all!F2)</f>
+        <v/>
+      </c>
+      <c r="H19" s="13" t="str">
+        <f>IF(_Area3_month_all!G2="","",_Area3_month_all!G2)</f>
+        <v/>
+      </c>
+      <c r="I19" s="13" t="str">
+        <f>IF(_Area3_month_all!H2="","",_Area3_month_all!H2)</f>
+        <v/>
+      </c>
+      <c r="J19" s="13" t="str">
+        <f>IF(_Area3_month_all!I2="","",_Area3_month_all!I2)</f>
+        <v/>
+      </c>
+      <c r="K19" s="13" t="str">
+        <f>IF(_Area3_month_all!J2="","",_Area3_month_all!J2)</f>
+        <v/>
+      </c>
+      <c r="L19" s="13" t="str">
+        <f>IF(_Area3_month_all!K2="","",_Area3_month_all!K2)</f>
+        <v/>
+      </c>
+      <c r="M19" s="13" t="str">
+        <f>IF(_Area3_month_all!L2="","",_Area3_month_all!L2)</f>
+        <v/>
+      </c>
+      <c r="N19" s="13" t="str">
+        <f>IF(_Area3_month_all!M2="","",_Area3_month_all!M2)</f>
+        <v/>
+      </c>
+      <c r="O19" s="13" t="str">
+        <f>IF(_Area3_month_all!N2="","",_Area3_month_all!N2)</f>
+        <v/>
+      </c>
+      <c r="P19" s="13" t="str">
+        <f>IF(_Area3_month_all!O2="","",_Area3_month_all!O2)</f>
         <v/>
       </c>
     </row>
@@ -2406,10 +2424,15 @@
   <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="9" width="35.1833333333333" customWidth="1"/>
+    <col min="10" max="12" width="34.0916666666667" customWidth="1"/>
+    <col min="13" max="15" width="35.1833333333333" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="3" t="s">
